--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail0 Features.xlsx
@@ -4540,7 +4540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,29 +4551,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4594,115 +4592,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4719,72 +4707,66 @@
         <v>3.072077977341864e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4860977737015038</v>
+        <v>1.608049871692311e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4568325075278956</v>
+        <v>3.36475412603253e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.608049871692311e-06</v>
+        <v>-0.08737914446765166</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.36475412603253e-06</v>
+        <v>0.3366989830709668</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08737914446765166</v>
+        <v>0.1206791982433289</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3366989830709668</v>
+        <v>1.929915281892344</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1206791982433289</v>
+        <v>3.06266241006314</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.952733641201255</v>
+        <v>5.250288918772606</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.06266241006314</v>
+        <v>4.863174060621223e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.250288918772606</v>
+        <v>4245597351.382894</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.863174060621223e-17</v>
+        <v>2.851031943667367e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4245597351.382894</v>
+        <v>876.5918353870652</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.851031943667367e-08</v>
+        <v>0.0001333106429609935</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>876.5918353870652</v>
+        <v>9.344661461880456</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001333106429609935</v>
+        <v>1.187893129984114</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.344661461880456</v>
+        <v>0.01164104499375952</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.187893129984114</v>
+        <v>3.622809004041168</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01164104499375952</v>
+        <v>0.9629226354980625</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.622809004041168</v>
+        <v>1.055920966303119</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9629226354980625</v>
+        <v>89</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.055920966303119</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.894733349252261</v>
       </c>
     </row>
@@ -4799,72 +4781,66 @@
         <v>2.906203325208112e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2527375984970587</v>
+        <v>1.050049263155692e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.278144280446695</v>
+        <v>3.342888869628229e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.050049263155692e-06</v>
+        <v>-0.06032527912614569</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.342888869628229e-06</v>
+        <v>0.2520923329177646</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06032527912614569</v>
+        <v>0.06700874791074675</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2520923329177646</v>
+        <v>1.925470095621447</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06700874791074675</v>
+        <v>2.730316307347366</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.95162526214292</v>
+        <v>5.392101319975916</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.730316307347366</v>
+        <v>4.610734674174702e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.392101319975916</v>
+        <v>4496242405.834245</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.610734674174702e-17</v>
+        <v>2.690730267358278e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4496242405.834245</v>
+        <v>932.1151482596637</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.690730267358278e-08</v>
+        <v>0.0001267343477499271</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>932.1151482596637</v>
+        <v>8.24847264249529</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001267343477499271</v>
+        <v>1.409021887997907</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.24847264249529</v>
+        <v>0.008622662956535142</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.409021887997907</v>
+        <v>4.034779405054591</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008622662956535142</v>
+        <v>0.9636970201766351</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.034779405054591</v>
+        <v>1.021818803138879</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9636970201766351</v>
+        <v>98</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.021818803138879</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.583849334274039</v>
       </c>
     </row>
@@ -4879,72 +4855,66 @@
         <v>2.91411474259981e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2805628633156554</v>
+        <v>9.732083873442523e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.242167508200062</v>
+        <v>3.328744517640924e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.732083873442523e-07</v>
+        <v>-0.03861729274777351</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.328744517640924e-06</v>
+        <v>0.1824007962214229</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03861729274777351</v>
+        <v>0.03468046719676091</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1824007962214229</v>
+        <v>1.934829960298585</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03468046719676091</v>
+        <v>2.735126694183985</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.955959397386236</v>
+        <v>5.953623555332539</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.735126694183985</v>
+        <v>3.78201701030237e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.953623555332539</v>
+        <v>5559494011.180665</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.78201701030237e-17</v>
+        <v>2.179615388351234e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5559494011.180665</v>
+        <v>1168.944821374352</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.179615388351234e-08</v>
+        <v>0.0001051441758369893</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1168.944821374352</v>
+        <v>7.681592947408337</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001051441758369893</v>
+        <v>1.670235543243635</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.681592947408337</v>
+        <v>0.006204228736916318</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.670235543243635</v>
+        <v>4.863227205391191</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006204228736916318</v>
+        <v>0.9616002123660321</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.863227205391191</v>
+        <v>1.018708483986969</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9616002123660321</v>
+        <v>118</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.018708483986969</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.679714719085151</v>
       </c>
     </row>
@@ -4959,72 +4929,66 @@
         <v>2.971259803928253e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2906098371466396</v>
+        <v>9.985708513817784e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.241730852357787</v>
+        <v>3.319632988504713e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.985708513817784e-07</v>
+        <v>-0.02475400617407461</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.319632988504713e-06</v>
+        <v>0.1414223162602892</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02475400617407461</v>
+        <v>0.02058368361988928</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1414223162602892</v>
+        <v>1.938004618531221</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02058368361988928</v>
+        <v>2.708509401465467</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.956568267687271</v>
+        <v>7.423811795628721</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.708509401465467</v>
+        <v>2.019428964155687e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.423811795628721</v>
+        <v>10388919935.75141</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.019428964155687e-17</v>
+        <v>1.168772493310237e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10388919935.75141</v>
+        <v>2179.562763084774</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.168772493310237e-08</v>
+        <v>5.92030850742996e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2179.562763084774</v>
+        <v>10.13618001638824</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.92030850742996e-05</v>
+        <v>1.123965188719989</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.13618001638824</v>
+        <v>0.006082651970370026</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.123965188719989</v>
+        <v>6.073883587379394</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006082651970370026</v>
+        <v>0.9608637883785528</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.073883587379394</v>
+        <v>1.026535045035894</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9608637883785528</v>
+        <v>120</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.026535045035894</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.037518562685911</v>
       </c>
     </row>
@@ -5039,72 +5003,66 @@
         <v>3.03145904750192e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2681028464607341</v>
+        <v>1.023658403364065e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.250343385036776</v>
+        <v>3.313483660565235e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.023658403364065e-06</v>
+        <v>-0.0171024896488594</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.313483660565235e-06</v>
+        <v>0.1230975646121393</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0171024896488594</v>
+        <v>0.01543515146217439</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1230975646121393</v>
+        <v>1.937952309454557</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01543515146217439</v>
+        <v>3.52883498468516</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.954224782609474</v>
+        <v>6.170548847221795</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.52883498468516</v>
+        <v>1.203513704620711e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.170548847221795</v>
+        <v>16135882344.64983</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.203513704620711e-17</v>
+        <v>7.512095682012602e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>16135882344.64983</v>
+        <v>3133.548905219558</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.512095682012602e-09</v>
+        <v>4.357376699912889e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3133.548905219558</v>
+        <v>10.52529998643507</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.357376699912889e-05</v>
+        <v>1.264258732558094</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.52529998643507</v>
+        <v>0.004827186432750633</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.264258732558094</v>
+        <v>6.926865796095229</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004827186432750633</v>
+        <v>0.9597026899570501</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.926865796095229</v>
+        <v>0.9261419877992612</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9597026899570501</v>
+        <v>124</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9261419877992612</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>11.31503338624587</v>
       </c>
     </row>
@@ -5119,72 +5077,66 @@
         <v>3.085376348681894e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2335872736672761</v>
+        <v>1.048393994845888e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.24507007093917</v>
+        <v>3.308944084929934e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.048393994845888e-06</v>
+        <v>-0.01309097418234837</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.308944084929934e-06</v>
+        <v>0.1152551322365664</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01309097418234837</v>
+        <v>0.01345131161414742</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1152551322365664</v>
+        <v>1.940844100113009</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01345131161414742</v>
+        <v>3.152440297398931</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.957426188810543</v>
+        <v>6.6948615326005</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.152440297398931</v>
+        <v>1.022387264719114e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.6948615326005</v>
+        <v>18927449989.62009</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.022387264719114e-17</v>
+        <v>6.385997557994131e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>18927449989.62009</v>
+        <v>3662.685640496928</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.385997557994131e-09</v>
+        <v>3.005088179975568e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3662.685640496928</v>
+        <v>9.872445262827657</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.005088179975568e-05</v>
+        <v>1.916051684226397</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.872445262827657</v>
+        <v>0.002928914467567139</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.916051684226397</v>
+        <v>7.899192140023287</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002928914467567139</v>
+        <v>0.9586305470326015</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.899192140023287</v>
+        <v>0.824876060883877</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9586305470326015</v>
+        <v>109</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.824876060883877</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>14.31616376422756</v>
       </c>
     </row>
@@ -5199,72 +5151,66 @@
         <v>3.135174408730733e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1956866935739071</v>
+        <v>1.072635416458316e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.229492447398201</v>
+        <v>3.305132929144449e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.072635416458316e-06</v>
+        <v>-0.01201794813555225</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.305132929144449e-06</v>
+        <v>0.1124671783590968</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01201794813555225</v>
+        <v>0.01279281161010443</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1124671783590968</v>
+        <v>1.946498572940392</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01279281161010443</v>
+        <v>3.140104985322197</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.961318552845004</v>
+        <v>8.132333118806883</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.140104985322197</v>
+        <v>5.681164798246297e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.132333118806883</v>
+        <v>33100800368.56213</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.681164798246297e-18</v>
+        <v>3.656344952829668e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>33100800368.56213</v>
+        <v>6224.641981347313</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.656344952829668e-09</v>
+        <v>1.19848007723505e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6224.641981347313</v>
+        <v>9.805249048045861</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1.19848007723505e-05</v>
+        <v>1.937972314316134</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.805249048045861</v>
+        <v>0.001152253608771283</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.937972314316134</v>
+        <v>8.533696338935057</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.001152253608771283</v>
+        <v>0.9570107641010713</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.533696338935057</v>
+        <v>0.7749985250503879</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9570107641010713</v>
+        <v>101</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7749985250503879</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>17.40616456511967</v>
       </c>
     </row>
@@ -5279,72 +5225,66 @@
         <v>3.187380372632216e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.155775472787103</v>
+        <v>1.096234575937203e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.210532993838489</v>
+        <v>3.301242705942129e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.096234575937203e-06</v>
+        <v>-0.01266722917716336</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.301242705942129e-06</v>
+        <v>0.1108980145448972</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01266722917716336</v>
+        <v>0.01245848797694133</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1108980145448972</v>
+        <v>1.946273782778194</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01245848797694133</v>
+        <v>3.815963198860088</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.961741097666269</v>
+        <v>8.876237108045661</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.815963198860088</v>
+        <v>5.206597862336094e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.876237108045661</v>
+        <v>36067175744.00285</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.206597862336094e-18</v>
+        <v>3.359570237898368e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>36067175744.00285</v>
+        <v>6772.95683490907</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.359570237898368e-09</v>
+        <v>1.225167490763417e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6772.95683490907</v>
+        <v>9.798956584356873</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1.225167490763417e-05</v>
+        <v>1.693137012587157</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.798956584356873</v>
+        <v>0.001176400313118422</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.693137012587157</v>
+        <v>8.383743188234861</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.001176400313118422</v>
+        <v>0.9595579415863263</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.383743188234861</v>
+        <v>0.7349866446740387</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9595579415863263</v>
+        <v>60</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7349866446740387</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>17.56987447289863</v>
       </c>
     </row>
@@ -5359,72 +5299,66 @@
         <v>3.243985611839559e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1144485728823221</v>
+        <v>1.119044975600409e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.191020328166047</v>
+        <v>3.29705199518794e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.119044975600409e-06</v>
+        <v>-0.01341076599130107</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.29705199518794e-06</v>
+        <v>0.1092141048665685</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01341076599130107</v>
+        <v>0.01210727716671321</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1092141048665685</v>
+        <v>1.946744291393104</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01210727716671321</v>
+        <v>3.597860500764551</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.961093151284968</v>
+        <v>8.092664952553998</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.597860500764551</v>
+        <v>6.26366763170684e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.092664952553998</v>
+        <v>29882454857.15499</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.26366763170684e-18</v>
+        <v>4.049649017038979e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>29882454857.15499</v>
+        <v>5593.211590368549</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.049649017038979e-09</v>
+        <v>1.865362561539181e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5593.211590368549</v>
+        <v>10.85220374678487</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1.865362561539181e-05</v>
+        <v>1.224912138125042</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.85220374678487</v>
+        <v>0.002196843572823526</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.224912138125042</v>
+        <v>7.925986995678122</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002196843572823526</v>
+        <v>0.9598677318054259</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.925986995678122</v>
+        <v>0.7191798411695363</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9598677318054259</v>
+        <v>60</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7191798411695363</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>16.18711676195725</v>
       </c>
     </row>
@@ -5439,72 +5373,66 @@
         <v>3.305022567399305e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.07267713074275703</v>
+        <v>1.140973974301515e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.172523272790484</v>
+        <v>3.292536084948463e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.140973974301515e-06</v>
+        <v>-0.01418813980178231</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.292536084948463e-06</v>
+        <v>0.1074059494144714</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01418813980178231</v>
+        <v>0.01173709278016035</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1074059494144714</v>
+        <v>1.950241243102848</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01173709278016035</v>
+        <v>3.787580660105418</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.963969524676679</v>
+        <v>7.315128280183355</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.787580660105418</v>
+        <v>7.822618530713527e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>7.315128280183355</v>
+        <v>23937649160.2319</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.822618530713527e-18</v>
+        <v>5.066380306590778e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>23937649160.2319</v>
+        <v>4482.446837056096</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.066380306590778e-09</v>
+        <v>2.795767130752141e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4482.446837056096</v>
+        <v>12.23156127890619</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.795767130752141e-05</v>
+        <v>1.065886802921122</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.23156127890619</v>
+        <v>0.004182777715073984</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.065886802921122</v>
+        <v>7.502971872993737</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.004182777715073984</v>
+        <v>0.9612756570925401</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.502971872993737</v>
+        <v>0.7251183933393859</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9612756570925401</v>
+        <v>62</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7251183933393859</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>14.55286939050028</v>
       </c>
     </row>
@@ -5519,72 +5447,66 @@
         <v>3.370619902430875e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.03153595344689274</v>
+        <v>1.161957529689529e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.156887894613001</v>
+        <v>3.28765120440447e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.161957529689529e-06</v>
+        <v>-0.01513228229498698</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.28765120440447e-06</v>
+        <v>0.1054407440924895</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01513228229498698</v>
+        <v>0.01134648812394387</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1054407440924895</v>
+        <v>1.951528711205234</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01134648812394387</v>
+        <v>3.198593481264498</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.964382663788999</v>
+        <v>6.855183894472539</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.198593481264498</v>
+        <v>1.001091483459096e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.855183894472539</v>
+        <v>19210359461.3525</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.001091483459096e-17</v>
+        <v>6.317796183863578e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>19210359461.3525</v>
+        <v>3694.407094096124</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.317796183863578e-09</v>
+        <v>3.452628434944829e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3694.407094096124</v>
+        <v>13.01703822289136</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3.452628434944829e-05</v>
+        <v>1.027335392254195</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.01703822289136</v>
+        <v>0.005850247007810258</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.027335392254195</v>
+        <v>7.30073940661349</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005850247007810258</v>
+        <v>0.9603653672004767</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.30073940661349</v>
+        <v>0.7209364529046123</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9603653672004767</v>
+        <v>64</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7209364529046123</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>13.68464881391671</v>
       </c>
     </row>
@@ -5599,72 +5521,66 @@
         <v>3.44134596450339e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.007601619199951325</v>
+        <v>1.181750814229335e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.146743394403344</v>
+        <v>3.282286586482581e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.181750814229335e-06</v>
+        <v>-0.01641869698937666</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.282286586482581e-06</v>
+        <v>0.1031752981880743</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01641869698937666</v>
+        <v>0.01091438275754326</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1031752981880743</v>
+        <v>1.951249559006655</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01091438275754326</v>
+        <v>3.229676514493075</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.96851686978115</v>
+        <v>7.948108477068178</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.229676514493075</v>
+        <v>1.499916861832169e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>7.948108477068178</v>
+        <v>12840793766.95099</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.499916861832169e-17</v>
+        <v>9.460002799457888e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>12840793766.95099</v>
+        <v>2473.152685293936</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.460002799457888e-09</v>
+        <v>3.928676241884564e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2473.152685293936</v>
+        <v>13.16771709578454</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.928676241884564e-05</v>
+        <v>1.05412568389618</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.16771709578454</v>
+        <v>0.006811883551163775</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.05412568389618</v>
+        <v>7.229504965164508</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006811883551163775</v>
+        <v>0.9610380459751739</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>7.229504965164508</v>
+        <v>0.7440087390079304</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9610380459751739</v>
+        <v>60</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7440087390079304</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>13.45273238275621</v>
       </c>
     </row>
@@ -5679,72 +5595,66 @@
         <v>3.517530237430821e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.04292999699445704</v>
+        <v>1.200006044736527e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.144866044381584</v>
+        <v>3.276320534186188e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.200006044736527e-06</v>
+        <v>-0.0178679789167022</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.276320534186188e-06</v>
+        <v>0.1005954640768253</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0178679789167022</v>
+        <v>0.01043835739914603</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1005954640768253</v>
+        <v>1.950524819104505</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01043835739914603</v>
+        <v>3.13045287075565</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.970209897802182</v>
+        <v>6.481739257244299</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.13045287075565</v>
+        <v>2.255338044352647e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.481739257244299</v>
+        <v>8982945470.359482</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.255338044352647e-17</v>
+        <v>1.358641914846145e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>8982945470.359482</v>
+        <v>1819.906904418973</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.358641914846145e-08</v>
+        <v>4.708682165601755e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1819.906904418973</v>
+        <v>13.76131027574552</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>4.708682165601755e-05</v>
+        <v>1.082637832533773</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.76131027574552</v>
+        <v>0.008917003778562119</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.082637832533773</v>
+        <v>7.080609584024906</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008917003778562119</v>
+        <v>0.9614983438053373</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>7.080609584024906</v>
+        <v>0.7829907120066136</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9614983438053373</v>
+        <v>60</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7829907120066136</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>13.26933659733615</v>
       </c>
     </row>
@@ -5759,72 +5669,66 @@
         <v>3.598567915478241e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.07272627650323048</v>
+        <v>1.216503997849752e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.152699232457433</v>
+        <v>3.269706322713776e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.216503997849752e-06</v>
+        <v>-0.01931790799629728</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.269706322713776e-06</v>
+        <v>0.09779673193683107</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01931790799629728</v>
+        <v>0.009936941657159372</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09779673193683107</v>
+        <v>1.941167013979182</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009936941657159372</v>
+        <v>3.080067806744572</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.961908385433758</v>
+        <v>5.433734353449875</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.080067806744572</v>
+        <v>3.209208647230532e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.433734353449875</v>
+        <v>6249287884.947738</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.209208647230532e-17</v>
+        <v>1.949909165088823e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>6249287884.947738</v>
+        <v>1253.311478375633</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.949909165088823e-08</v>
+        <v>6.826912553532944e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1253.311478375633</v>
+        <v>14.20084351846981</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>6.826912553532944e-05</v>
+        <v>1.028895268322176</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>14.20084351846981</v>
+        <v>0.01376742197153881</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.028895268322176</v>
+        <v>6.399760959877186</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01376742197153881</v>
+        <v>0.9604165856159642</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>6.399760959877186</v>
+        <v>0.7929982939598479</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9604165856159642</v>
+        <v>60</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7929982939598479</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>11.18170144069251</v>
       </c>
     </row>
@@ -5839,72 +5743,66 @@
         <v>3.683679345495965e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.09532045214344793</v>
+        <v>1.230904441173917e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.170984940459548</v>
+        <v>3.262380980443167e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.230904441173917e-06</v>
+        <v>-0.02094124342518604</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.262380980443167e-06</v>
+        <v>0.09459786368557832</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02094124342518604</v>
+        <v>0.009386623308651303</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09459786368557832</v>
+        <v>1.938352624004941</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009386623308651303</v>
+        <v>2.828156112035674</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.960815961488368</v>
+        <v>4.726476901582717</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.828156112035674</v>
+        <v>4.712428210127447e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.726476901582717</v>
+        <v>4027366137.873839</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.712428210127447e-17</v>
+        <v>3.0192946918136e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>4027366137.873839</v>
+        <v>764.3406820640545</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.0192946918136e-08</v>
+        <v>0.0001047917560428992</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>764.3406820640545</v>
+        <v>13.60709049493068</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001047917560428992</v>
+        <v>1.011738221500548</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.60709049493068</v>
+        <v>0.01940249875740056</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.011738221500548</v>
+        <v>5.33011266660047</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01940249875740056</v>
+        <v>0.9597991907664014</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.33011266660047</v>
+        <v>0.8016551866286874</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9597991907664014</v>
+        <v>52</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8016551866286874</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>7.878054165306295</v>
       </c>
     </row>
@@ -5919,72 +5817,66 @@
         <v>3.771903167617695e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1088631778224194</v>
+        <v>1.242598596763863e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.199853552263727</v>
+        <v>3.254235270562828e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.242598596763863e-06</v>
+        <v>-0.02275721089606876</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.254235270562828e-06</v>
+        <v>0.09087732065220429</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02275721089606876</v>
+        <v>0.00877566700629271</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09087732065220429</v>
+        <v>1.945695920405905</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00877566700629271</v>
+        <v>2.40055597537402</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.961631665058153</v>
+        <v>4.684354201178497</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.40055597537402</v>
+        <v>7.391076159254858e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.684354201178497</v>
+        <v>2581111544.743396</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.391076159254858e-17</v>
+        <v>4.719598920080768e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2581111544.743396</v>
+        <v>492.4036051953382</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.719598920080768e-08</v>
+        <v>0.0001392285208819528</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>492.4036051953382</v>
+        <v>13.48821750927578</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001392285208819528</v>
+        <v>1.023927176915089</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.48821750927578</v>
+        <v>0.02533012487301835</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.023927176915089</v>
+        <v>4.573337952956567</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02533012487301835</v>
+        <v>0.9596982561024195</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.573337952956567</v>
+        <v>0.863495555560045</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9596982561024195</v>
+        <v>39</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.863495555560045</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>5.847414357440767</v>
       </c>
     </row>
@@ -5999,72 +5891,66 @@
         <v>3.861587440329721e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1117418914436273</v>
+        <v>1.251193968661539e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.237860994934405</v>
+        <v>3.245172634003046e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.251193968661539e-06</v>
+        <v>-0.02473014952118301</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.245172634003046e-06</v>
+        <v>0.08658588090270775</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02473014952118301</v>
+        <v>0.008107461032022313</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08658588090270775</v>
+        <v>1.943034089050617</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.008107461032022313</v>
+        <v>2.412687026125246</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.961422430586711</v>
+        <v>4.186538516705378</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.412687026125246</v>
+        <v>9.029427248226065e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.186538516705378</v>
+        <v>2033955594.619648</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.029427248226065e-17</v>
+        <v>5.984576316332019e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2033955594.619648</v>
+        <v>373.5451804881096</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.984576316332019e-08</v>
+        <v>0.0001600700809038419</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>373.5451804881096</v>
+        <v>14.42518902797082</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001600700809038419</v>
+        <v>0.9713192346148311</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>14.42518902797082</v>
+        <v>0.03330835541928802</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.9713192346148311</v>
+        <v>4.176140331465538</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03330835541928802</v>
+        <v>0.9588061944957897</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.176140331465538</v>
+        <v>0.9024110303888835</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9588061944957897</v>
+        <v>30</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9024110303888835</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>5.05733404571783</v>
       </c>
     </row>
@@ -6079,72 +5965,66 @@
         <v>3.950544929882038e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1028079516480588</v>
+        <v>1.256758142742558e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.281769071485766</v>
+        <v>3.235086806320717e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.256758142742558e-06</v>
+        <v>-0.02687244506313512</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.235086806320717e-06</v>
+        <v>0.08163281147705007</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02687244506313512</v>
+        <v>0.007384692021287697</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08163281147705007</v>
+        <v>1.940545752487092</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.007384692021287697</v>
+        <v>2.219598933431659</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.9599334263524</v>
+        <v>4.690751846259909</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.219598933431659</v>
+        <v>1.143691776989915e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.690751846259909</v>
+        <v>1572662852.609318</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.143691776989915e-16</v>
+        <v>7.706285069159284e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1572662852.609318</v>
+        <v>282.8656786240221</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.706285069159284e-08</v>
+        <v>0.0001686059949233607</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>282.8656786240221</v>
+        <v>14.46996528908855</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001686059949233607</v>
+        <v>0.9600514797323634</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>14.46996528908855</v>
+        <v>0.03530270559223488</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.9600514797323634</v>
+        <v>3.861719391371066</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.03530270559223488</v>
+        <v>0.9601835811746282</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.861719391371066</v>
+        <v>0.9723743064233196</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9601835811746282</v>
+        <v>10</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9723743064233196</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>4.121641010926973</v>
       </c>
     </row>
@@ -6159,72 +6039,66 @@
         <v>4.035900306653517e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.08216948209889273</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.326905738326882</v>
+        <v>3.223980079288422e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.02862020001723559</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.223980079288422e-06</v>
+        <v>0.0771283687753913</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02862020001723559</v>
+        <v>0.006766974857774776</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.0771283687753913</v>
+        <v>1.931872228117337</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.006766974857774776</v>
+        <v>2.013088851373609</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.947541982965674</v>
+        <v>4.787350955490188</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.013088851373609</v>
+        <v>2.027173212068895e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.787350955490188</v>
+        <v>886389494.7155962</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.027173212068895e-16</v>
+        <v>1.366319143262686e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>886389494.7155962</v>
+        <v>159.2722294121399</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.366319143262686e-07</v>
+        <v>0.0001701907593626704</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>159.2722294121399</v>
+        <v>13.6906993860095</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001701907593626704</v>
+        <v>1.00799045927699</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.6906993860095</v>
+        <v>0.0318997474740443</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.00799045927699</v>
+        <v>3.704662301277112</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0318997474740443</v>
+        <v>0.9600843488805436</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.704662301277112</v>
+        <v>1.126570336432119</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9600843488805436</v>
+        <v>8</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.126570336432119</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>3.074797846655287</v>
       </c>
     </row>
@@ -6239,72 +6113,66 @@
         <v>4.114543609961708e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.05121427582047117</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.369017539690952</v>
+        <v>3.212031045824998e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.03000918610562439</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.212031045824998e-06</v>
+        <v>0.07303842391998019</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03000918610562439</v>
+        <v>0.006233802986116301</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.07303842391998019</v>
+        <v>1.93017355826549</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.006233802986116301</v>
+        <v>1.859147468113742</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.940397715043718</v>
+        <v>4.711236224112755</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.859147468113742</v>
+        <v>4.084299749566171e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.711236224112755</v>
+        <v>441811656.1859336</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.084299749566171e-16</v>
+        <v>2.741551842067482e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>441811656.1859336</v>
+        <v>79.72452618663334</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.741551842067482e-07</v>
+        <v>0.0002042825900938085</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>79.72452618663334</v>
+        <v>13.41685740341457</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002042825900938085</v>
+        <v>1.176306904278625</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>13.41685740341457</v>
+        <v>0.03677333039269846</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.176306904278625</v>
+        <v>3.390302470811562</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03677333039269846</v>
+        <v>0.9604307922503817</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.390302470811562</v>
+        <v>1.221530579858907</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9604307922503817</v>
+        <v>4</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.221530579858907</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.896550864748395</v>
       </c>
     </row>
@@ -6319,72 +6187,66 @@
         <v>4.182578172404288e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.009852311482760799</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.403803147608493</v>
+        <v>3.199228717540092e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.03167431728659115</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.199228717540092e-06</v>
+        <v>0.06783771075457166</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03167431728659115</v>
+        <v>0.005603247112979095</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.06783771075457166</v>
+        <v>1.923670676066961</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005603247112979095</v>
+        <v>1.717928508356958</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.926017786053154</v>
+        <v>4.456671349975336</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.717928508356958</v>
+        <v>8.322167590372693e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.456671349975336</v>
+        <v>218064053.922135</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.322167590372693e-16</v>
+        <v>5.558607789704836e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>218064053.922135</v>
+        <v>39.57351441289593</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>5.558607789704836e-07</v>
+        <v>0.0002415111333253164</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>39.57351441289593</v>
+        <v>12.86154822332465</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002415111333253164</v>
+        <v>1.261831060779311</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.86154822332465</v>
+        <v>0.03995063225051523</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.261831060779311</v>
+        <v>2.816244673098777</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03995063225051523</v>
+        <v>0.9604327907409251</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.816244673098777</v>
+        <v>1.316285161586563</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9604327907409251</v>
+        <v>4</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.316285161586563</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.8301655910265895</v>
       </c>
     </row>
@@ -6399,72 +6261,66 @@
         <v>4.235168396204732e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.04153177918759502</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.426443240897061</v>
+        <v>3.18562233467214e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.0326903320662936</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.18562233467214e-06</v>
+        <v>0.06399268768763293</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0326903320662936</v>
+        <v>0.005162492253212483</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.06399268768763293</v>
+        <v>1.903521697735125</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005162492253212483</v>
+        <v>1.602857860860182</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.892886434022975</v>
+        <v>4.293531749652598</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.602857860860182</v>
+        <v>1.675220938425397e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.293531749652598</v>
+        <v>107833898.9013397</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.675220938425397e-15</v>
+        <v>1.122065493161208e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>107833898.9013397</v>
+        <v>19.47971994013933</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.122065493161208e-06</v>
+        <v>0.0002464353382544667</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>19.47971994013933</v>
+        <v>12.42899942200862</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002464353382544667</v>
+        <v>1.202908674172675</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.42899942200862</v>
+        <v>0.03806933761668754</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.202908674172675</v>
+        <v>2.453733738485687</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.03806933761668754</v>
+        <v>0.9596782604244667</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.453733738485687</v>
+        <v>1.417083417368712</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9596782604244667</v>
+        <v>4</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.417083417368712</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3965468845938304</v>
       </c>
     </row>
@@ -6479,72 +6335,66 @@
         <v>4.269641500678349e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1003078473469887</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.434948608396455</v>
+        <v>3.171752127884827e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.0322696090977451</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.171752127884827e-06</v>
+        <v>0.06380931605693706</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0322696090977451</v>
+        <v>0.005111597756142857</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06380931605693706</v>
+        <v>1.873776586387373</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005111597756142857</v>
+        <v>1.493784382849276</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.846875686014855</v>
+        <v>4.15511105266829</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.493784382849276</v>
+        <v>3.268445283227696e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.15511105266829</v>
+        <v>54072628.36934402</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.268445283227696e-15</v>
+        <v>2.232369955893946e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>54072628.36934402</v>
+        <v>9.556440926479512</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.232369955893946e-06</v>
+        <v>0.0002566078540485825</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9.556440926479512</v>
+        <v>12.66383058060153</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002566078540485825</v>
+        <v>1.139721360619752</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.66383058060153</v>
+        <v>0.041152870010605</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.139721360619752</v>
+        <v>2.191200096262446</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.041152870010605</v>
+        <v>0.9563231892831863</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.191200096262446</v>
+        <v>1.515976309765352</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9563231892831863</v>
+        <v>4</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.515976309765352</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2370043910550886</v>
       </c>
     </row>
@@ -6559,72 +6409,66 @@
         <v>4.284380133924225e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1641074796623211</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.427136373810164</v>
+        <v>3.15822571541581e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.0307627653224466</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.15822571541581e-06</v>
+        <v>0.06682454711376273</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0307627653224466</v>
+        <v>0.005409196937478716</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06682454711376273</v>
+        <v>1.840376001868548</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005409196937478716</v>
+        <v>1.413627059113108</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.794937835481668</v>
+        <v>4.089294685608035</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.413627059113108</v>
+        <v>6.210020405550476e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.089294685608035</v>
+        <v>29491638.40522014</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>6.210020405550476e-15</v>
+        <v>4.090458706390288e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>29491638.40522014</v>
+        <v>5.401207077333601</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.090458706390288e-06</v>
+        <v>0.0002671258909508363</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5.401207077333601</v>
+        <v>13.12519887640116</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002671258909508363</v>
+        <v>1.103711017145271</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>13.12519887640116</v>
+        <v>0.04601800310108402</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.103711017145271</v>
+        <v>2.055462307359249</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.04601800310108402</v>
+        <v>0.9526105830096446</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.055462307359249</v>
+        <v>1.596062832752497</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9526105830096446</v>
+        <v>4</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.596062832752497</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.166277422282336</v>
       </c>
     </row>
@@ -6639,72 +6483,66 @@
         <v>4.277107387540906e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2300848564555542</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.398218271498801</v>
+        <v>3.145532365855661e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.02829228709791918</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.145532365855661e-06</v>
+        <v>0.07372845429942301</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.02829228709791918</v>
+        <v>0.006230984270152575</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.07372845429942301</v>
+        <v>1.818096905706563</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.006230984270152575</v>
+        <v>1.360785859647457</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.758062374340755</v>
+        <v>3.702974371360651</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.360785859647457</v>
+        <v>1.099637288773785e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.702974371360651</v>
+        <v>16907167.16992068</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.099637288773785e-14</v>
+        <v>7.098569792316279e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>16907167.16992068</v>
+        <v>3.143338500439376</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.098569792316279e-06</v>
+        <v>0.0002715576837233492</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3.143338500439376</v>
+        <v>13.58305948016604</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002715576837233492</v>
+        <v>1.066688040610497</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.58305948016604</v>
+        <v>0.05010225818292469</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.066688040610497</v>
+        <v>1.989986328421046</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.05010225818292469</v>
+        <v>0.9497578354453811</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1.989986328421046</v>
+        <v>1.662390194800033</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9497578354453811</v>
+        <v>2</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.662390194800033</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1326356723534599</v>
       </c>
     </row>
@@ -6719,72 +6557,66 @@
         <v>4.246721171526379e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2924694491437771</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.344248144850706</v>
+        <v>3.134173556778335e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.02476193196851921</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.134173556778335e-06</v>
+        <v>0.08533785346201633</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.02476193196851921</v>
+        <v>0.007886754910274114</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.08533785346201633</v>
+        <v>1.740208041827416</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.007886754910274114</v>
+        <v>1.36644220384865</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.672344605572382</v>
+        <v>3.23547033698444</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.36644220384865</v>
+        <v>1.423390654788267e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.23547033698444</v>
+        <v>13091809.9650015</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.423390654788267e-14</v>
+        <v>8.827753459376747e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>13091809.9650015</v>
+        <v>2.439627361194079</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.827753459376747e-06</v>
+        <v>0.0002638754371037646</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2.439627361194079</v>
+        <v>14.27412211126927</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002638754371037646</v>
+        <v>0.9766608137853963</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>14.27412211126927</v>
+        <v>0.05376476862040236</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.9766608137853963</v>
+        <v>1.896435380749686</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.05376476862040236</v>
+        <v>0.9498845278573455</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>1.896435380749686</v>
+        <v>1.70299995166477</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9498845278573455</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.70299995166477</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1240270698142382</v>
       </c>
     </row>
@@ -6799,72 +6631,66 @@
         <v>4.196451524466734e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3422662109891199</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.270580914765369</v>
+        <v>3.124565454794268e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.02061593661035832</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.124565454794268e-06</v>
+        <v>0.09927812226956358</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.02061593661035832</v>
+        <v>0.01027034762441231</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.09927812226956358</v>
+        <v>1.649943003397544</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01027034762441231</v>
+        <v>1.374600625892785</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.571809518092875</v>
+        <v>3.296830409745821</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.374600625892785</v>
+        <v>1.370899886112705e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.296830409745821</v>
+        <v>14236989.08264939</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.370899886112705e-14</v>
+        <v>7.685409460380946e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>14236989.08264939</v>
+        <v>2.778702452393827</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.685409460380946e-06</v>
+        <v>0.0002399386737948565</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2.778702452393827</v>
+        <v>13.44661011845001</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002399386737948565</v>
+        <v>1.005005129677525</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>13.44661011845001</v>
+        <v>0.04338362921029641</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.005005129677525</v>
+        <v>2.059125075719022</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.04338362921029641</v>
+        <v>0.9472937317597435</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.059125075719022</v>
+        <v>1.833511333985976</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9472937317597435</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.833511333985976</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1267095253498419</v>
       </c>
     </row>
@@ -6879,72 +6705,66 @@
         <v>4.134207039142981e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3717214524534118</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.196757481804536</v>
+        <v>3.116820590804442e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.0166410322929725</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.116820590804442e-06</v>
+        <v>0.1118693291596877</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.0166410322929725</v>
+        <v>0.01278222086849028</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1118693291596877</v>
+        <v>1.494643763172887</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01278222086849028</v>
+        <v>1.377485356015412</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.420496741534245</v>
+        <v>5.418181673885507</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.377485356015412</v>
+        <v>1.998249989328887e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.418181673885507</v>
+        <v>10799049.94016743</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.998249989328887e-14</v>
+        <v>8.569645805759263e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>10799049.94016743</v>
+        <v>2.330348738866831</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.569645805759263e-06</v>
+        <v>0.0002295253363498208</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2.330348738866831</v>
+        <v>9.969667676682523</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002295253363498208</v>
+        <v>1.47753748029556</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.969667676682523</v>
+        <v>0.02281350407549626</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.47753748029556</v>
+        <v>2.506684262396085</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02281350407549626</v>
+        <v>0.9364214249055632</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.506684262396085</v>
+        <v>1.872635434226337</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9364214249055632</v>
+        <v>1</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.872635434226337</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1192456855128797</v>
       </c>
     </row>
@@ -6959,72 +6779,66 @@
         <v>4.066159212988284e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3788540369283603</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.145359936886874</v>
+        <v>3.110533473984102e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.01422768145682224</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.110533473984102e-06</v>
+        <v>0.1195854337259167</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.01422768145682224</v>
+        <v>0.01449657570901049</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1195854337259167</v>
+        <v>1.491531335294702</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01449657570901049</v>
+        <v>1.380542177240335</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.409083806586142</v>
+        <v>4.236997634046169</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.380542177240335</v>
+        <v>3.298232925438573e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.236997634046169</v>
+        <v>6721930.448328898</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.298232925438573e-14</v>
+        <v>1.389396516429931e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>6721930.448328898</v>
+        <v>1.490285074285568</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.389396516429931e-05</v>
+        <v>0.0002332443716706616</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1.490285074285568</v>
+        <v>9.393447066371152</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002332443716706616</v>
+        <v>1.640266824887347</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.393447066371152</v>
+        <v>0.02058074812067906</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.640266824887347</v>
+        <v>2.541072379666228</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02058074812067906</v>
+        <v>0.9361722267027539</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.541072379666228</v>
+        <v>1.94514989153636</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9361722267027539</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.94514989153636</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1143867220036622</v>
       </c>
     </row>
@@ -7039,72 +6853,66 @@
         <v>3.994308036447626e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.365334867352449</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.131420214561752</v>
+        <v>3.105131965968489e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.01247365136710188</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.105131965968489e-06</v>
+        <v>0.1249451973047399</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.01247365136710188</v>
+        <v>0.01576353727690759</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1249451973047399</v>
+        <v>1.473187993328724</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01576353727690759</v>
+        <v>1.380821694143779</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.390416658454266</v>
+        <v>3.797641401998169</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.380821694143779</v>
+        <v>4.105535946033507e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.797641401998169</v>
+        <v>5485546.233578577</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.105535946033507e-14</v>
+        <v>1.690811860002321e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>5485546.233578577</v>
+        <v>1.235405750270411</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.690811860002321e-05</v>
+        <v>0.0002064394665326153</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1.235405750270411</v>
+        <v>10.4391789406445</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002064394665326153</v>
+        <v>1.257180521513382</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.4391789406445</v>
+        <v>0.02249704163836251</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.257180521513382</v>
+        <v>2.486082015327492</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02249704163836251</v>
+        <v>0.9320989715099222</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.486082015327492</v>
+        <v>1.946726189830901</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9320989715099222</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.946726189830901</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1218758801322217</v>
       </c>
     </row>
@@ -7119,72 +6927,66 @@
         <v>3.925558218865552e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3375209519655243</v>
+        <v>1.258160231230078e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.154755176430115</v>
+        <v>3.10059571701745e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.258160231230078e-06</v>
+        <v>-0.01040453085753213</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.10059571701745e-06</v>
+        <v>0.1293435570776643</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01040453085753213</v>
+        <v>0.01683674391590539</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1293435570776643</v>
+        <v>1.449520134662999</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01683674391590539</v>
+        <v>1.38256188672582</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.366463994398764</v>
+        <v>3.445794222620417</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.38256188672582</v>
+        <v>4.986767136924311e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.445794222620417</v>
+        <v>4598435.202743549</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.986767136924311e-14</v>
+        <v>2.012354777083433e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>4598435.202743549</v>
+        <v>1.054482146561522</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.012354777083433e-05</v>
+        <v>0.0002000570178532436</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1.054482146561522</v>
+        <v>11.67367048838553</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002000570178532436</v>
+        <v>1.073797239934095</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.67367048838553</v>
+        <v>0.02726268661843624</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.073797239934095</v>
+        <v>2.342091538928458</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02726268661843624</v>
+        <v>0.9267967003475684</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.342091538928458</v>
+        <v>1.925531215574845</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9267967003475684</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.925531215574845</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1307397793213203</v>
       </c>
     </row>
@@ -7199,72 +7001,66 @@
         <v>3.865320383131159e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3044240835922738</v>
+        <v>1.251692484380469e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.199393322154692</v>
+        <v>3.096899514125163e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.251692484380469e-06</v>
+        <v>-0.008625262926295448</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.096899514125163e-06</v>
+        <v>0.132146548960873</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.008625262926295448</v>
+        <v>0.01753673861662467</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.132146548960873</v>
+        <v>1.429523658952811</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01753673861662467</v>
+        <v>1.393114021422953</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.348973554607487</v>
+        <v>3.220946195808037</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.393114021422953</v>
+        <v>5.70730162748469e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.220946195808037</v>
+        <v>4198266.713075276</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.70730162748469e-14</v>
+        <v>2.20299187468686e-05</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>4198266.713075276</v>
+        <v>1.005937217683768</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.20299187468686e-05</v>
+        <v>0.000196838813284265</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1.005937217683768</v>
+        <v>12.13232422460668</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000196838813284265</v>
+        <v>1.038691646676404</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.13232422460668</v>
+        <v>0.02897335274175351</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.038691646676404</v>
+        <v>2.286994406673976</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.02897335274175351</v>
+        <v>0.920928043826456</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.286994406673976</v>
+        <v>1.935589248056705</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.920928043826456</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.935589248056705</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1369862306703621</v>
       </c>
     </row>
@@ -7279,72 +7075,66 @@
         <v>3.814331808184005e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.272134826201989</v>
+        <v>1.233709695174774e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.249261985759472</v>
+        <v>3.093868042077044e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.233709695174774e-06</v>
+        <v>-0.007223329251961611</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.093868042077044e-06</v>
+        <v>0.1339942209710963</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.007223329251961611</v>
+        <v>0.01800639537322763</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1339942209710963</v>
+        <v>1.422417060169389</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01800639537322763</v>
+        <v>1.385959117137415</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.33922697878703</v>
+        <v>3.156255836282334</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.385959117137415</v>
+        <v>5.943651933489209e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.156255836282334</v>
+        <v>4080383.804766807</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.943651933489209e-14</v>
+        <v>2.269499184546525e-05</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>4080383.804766807</v>
+        <v>0.9895902302903656</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.269499184546525e-05</v>
+        <v>0.0001856127894874403</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.9895902302903656</v>
+        <v>11.22587393960591</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001856127894874403</v>
+        <v>1.130504050842512</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>11.22587393960591</v>
+        <v>0.02339096933774024</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.130504050842512</v>
+        <v>2.606511452659795</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02339096933774024</v>
+        <v>0.9192937010770217</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.606511452659795</v>
+        <v>1.944270972630948</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9192937010770217</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.944270972630948</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1352418899592502</v>
       </c>
     </row>
@@ -7359,72 +7149,66 @@
         <v>3.771545167713049e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.243238231184399</v>
+        <v>1.208444893623394e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.295747968025319</v>
+        <v>3.091343426822834e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.208444893623394e-06</v>
+        <v>-0.006125628497859926</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.091343426822834e-06</v>
+        <v>0.1353021605624893</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.006125628497859926</v>
+        <v>0.01834379883097184</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1353021605624893</v>
+        <v>1.426597791219078</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01834379883097184</v>
+        <v>1.381762183682085</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.341373518887991</v>
+        <v>3.129145889311938</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.381762183682085</v>
+        <v>6.04708596539953e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.129145889311938</v>
+        <v>4166797.487638177</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.04708596539953e-14</v>
+        <v>2.279081171647034e-05</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>4166797.487638177</v>
+        <v>1.049907238277391</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.279081171647034e-05</v>
+        <v>0.000207664841752762</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1.049907238277391</v>
+        <v>9.953409452803999</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.000207664841752762</v>
+        <v>1.516024983021468</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.953409452803999</v>
+        <v>0.02057343057679287</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.516024983021468</v>
+        <v>2.74803310920489</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02057343057679287</v>
+        <v>0.9194690273086749</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.74803310920489</v>
+        <v>1.90046970360171</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9194690273086749</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.90046970360171</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1258015538973086</v>
       </c>
     </row>
@@ -7439,72 +7223,66 @@
         <v>3.73636224511135e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2192786667548139</v>
+        <v>1.176005851606907e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.333627849713541</v>
+        <v>3.089244894779001e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.176005851606907e-06</v>
+        <v>-0.005047695378906012</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.089244894779001e-06</v>
+        <v>0.1361835845380817</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.005047695378906012</v>
+        <v>0.01857085386067472</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1361835845380817</v>
+        <v>1.417523464602617</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01857085386067472</v>
+        <v>1.371750650498363</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.331741540956226</v>
+        <v>3.139487855663857</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.371750650498363</v>
+        <v>6.007311482298522e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.139487855663857</v>
+        <v>4247919.93202578</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>6.007311482298522e-14</v>
+        <v>2.23169552582256e-05</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>4247919.93202578</v>
+        <v>1.084008769028315</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.23169552582256e-05</v>
+        <v>0.0002080305214661258</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>1.084008769028315</v>
+        <v>9.944112109585355</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002080305214661258</v>
+        <v>1.462555117342913</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.944112109585355</v>
+        <v>0.0205711741811224</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.462555117342913</v>
+        <v>2.707222440759271</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0205711741811224</v>
+        <v>0.9187746057214122</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.707222440759271</v>
+        <v>1.911326849534904</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9187746057214122</v>
+        <v>6</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.911326849534904</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1250767578263719</v>
       </c>
     </row>
@@ -7519,72 +7297,66 @@
         <v>3.709357410075772e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2014191450664681</v>
+        <v>1.139736241550038e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.360314721219413</v>
+        <v>3.087598611807611e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.139736241550038e-06</v>
+        <v>-0.00376115584995792</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.087598611807611e-06</v>
+        <v>0.1366569369268662</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.00376115584995792</v>
+        <v>0.01868859957578277</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1366569369268662</v>
+        <v>1.406334338998102</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01868859957578277</v>
+        <v>1.351108373327653</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.320250232925058</v>
+        <v>3.161231735020355</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.351108373327653</v>
+        <v>5.924955591975589e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.161231735020355</v>
+        <v>4280611.242556599</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5.924955591975589e-14</v>
+        <v>2.19587266503206e-05</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>4280611.242556599</v>
+        <v>1.085667094973448</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.19587266503206e-05</v>
+        <v>0.0001924102099103271</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>1.085667094973448</v>
+        <v>11.11369082433735</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001924102099103271</v>
+        <v>1.141626712133707</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.11369082433735</v>
+        <v>0.02376537847550344</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.141626712133707</v>
+        <v>2.552239510767886</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02376537847550344</v>
+        <v>0.9194365784378681</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.552239510767886</v>
+        <v>1.950168569933528</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9194365784378681</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.950168569933528</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1332558275173646</v>
       </c>
     </row>
@@ -7961,7 +7733,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.184062272358219</v>
+        <v>1.170501643722861</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.888141333019356</v>
@@ -8050,7 +7822,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.17706642921681</v>
+        <v>1.16040388515554</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.873062611198122</v>
@@ -8139,7 +7911,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.167289122467679</v>
+        <v>1.152681980648532</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.93073850621735</v>
@@ -8228,7 +8000,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.170401705192676</v>
+        <v>1.155390422345665</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.879740437206738</v>
@@ -8317,7 +8089,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.159420238758339</v>
+        <v>1.140321361593265</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.902234074102691</v>
@@ -8406,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.156732352919406</v>
+        <v>1.139149028937418</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.948644885472018</v>
@@ -8495,7 +8267,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.178866432513446</v>
+        <v>1.155224954938369</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.927884405837422</v>
@@ -8584,7 +8356,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.205341314345031</v>
+        <v>1.185687934060615</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.932502493800569</v>
@@ -8673,7 +8445,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.19839416051395</v>
+        <v>1.186170998285982</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.910118847223691</v>
@@ -8762,7 +8534,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.213170416837535</v>
+        <v>1.203103405723737</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.899043667804973</v>
@@ -8851,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.210145861510015</v>
+        <v>1.202944623094714</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.872302561578217</v>
@@ -8940,7 +8712,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.203794741557121</v>
+        <v>1.193747551319103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.893526883115447</v>
@@ -9029,7 +8801,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.19845167996036</v>
+        <v>1.194320238383601</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.875909375454799</v>
@@ -9118,7 +8890,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.196629880927621</v>
+        <v>1.192803826113025</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.916449883469093</v>
@@ -9207,7 +8979,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.225896950877723</v>
+        <v>1.224071456447008</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.911340181149663</v>
@@ -9296,7 +9068,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.232560342533934</v>
+        <v>1.229124139725683</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.087374577864954</v>
@@ -9385,7 +9157,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.248172976755348</v>
+        <v>1.24181897325109</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.808441572905512</v>
@@ -9474,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.257749873998064</v>
+        <v>1.250378336411277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.996985880957935</v>
@@ -9563,7 +9335,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.260619133664091</v>
+        <v>1.255033834347092</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.968081936536866</v>
@@ -9652,7 +9424,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.295436636915058</v>
+        <v>1.288833599418779</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.029027961261035</v>
@@ -9741,7 +9513,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.308751090621652</v>
+        <v>1.305587901559166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.194326099843344</v>
@@ -9830,7 +9602,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.297631191548931</v>
+        <v>1.305800440370231</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.144632517798117</v>
@@ -9919,7 +9691,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.301071014011956</v>
+        <v>1.309927870072431</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.114941937515994</v>
@@ -10008,7 +9780,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.295610018836152</v>
+        <v>1.304424057459773</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.104696039627286</v>
@@ -10097,7 +9869,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.298192104211771</v>
+        <v>1.305428073438531</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.087181572013198</v>
@@ -10186,7 +9958,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.306419196856993</v>
+        <v>1.305082243348112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.910331215072046</v>
@@ -10275,7 +10047,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.339576752444567</v>
+        <v>1.346877480558675</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.785621313668083</v>
@@ -10364,7 +10136,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.380162380376349</v>
+        <v>1.385325556464864</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.190585696113279</v>
@@ -10453,7 +10225,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.354051439068738</v>
+        <v>1.353916139407312</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.226009386892866</v>
@@ -10542,7 +10314,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.356067588615574</v>
+        <v>1.359933911207548</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.443899165204044</v>
@@ -10631,7 +10403,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.375961141790312</v>
+        <v>1.370363853715425</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.26146224944164</v>
@@ -10720,7 +10492,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.347288614127769</v>
+        <v>1.353582853366732</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.08461913123742</v>
@@ -10809,7 +10581,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.337393645632303</v>
+        <v>1.343208516103324</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.126725217477584</v>
@@ -10898,7 +10670,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.332791798926003</v>
+        <v>1.347618049123687</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.271042083524633</v>
@@ -10987,7 +10759,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.33334530269941</v>
+        <v>1.349309451354375</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.272588820813262</v>
@@ -11076,7 +10848,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.332502119818427</v>
+        <v>1.34756070320976</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.229404451982443</v>
@@ -11165,7 +10937,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.33634580299348</v>
+        <v>1.352844117292307</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.179351804000729</v>
@@ -11254,7 +11026,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.318756329988267</v>
+        <v>1.336469874300662</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.283169506367585</v>
@@ -11343,7 +11115,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.316934710182301</v>
+        <v>1.336838592428948</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.342765767906371</v>
@@ -11432,7 +11204,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.301202848281234</v>
+        <v>1.321801842433384</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.202109904860624</v>
@@ -11521,7 +11293,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.309645344787356</v>
+        <v>1.333274207520874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.18799067072642</v>
@@ -11610,7 +11382,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.31550932811306</v>
+        <v>1.339978436224383</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.261008481930141</v>
@@ -11699,7 +11471,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.33996803896984</v>
+        <v>1.369076446669919</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.393991984493197</v>
@@ -11788,7 +11560,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.373317566630903</v>
+        <v>1.400332326423202</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.300886163204861</v>
@@ -11877,7 +11649,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.386331565655254</v>
+        <v>1.416873290148297</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.462018071179057</v>
@@ -11966,7 +11738,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.391039864978191</v>
+        <v>1.417892558830135</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.354237505397426</v>
@@ -12055,7 +11827,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.403343326889605</v>
+        <v>1.439269966706854</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.373587787045256</v>
@@ -12144,7 +11916,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.440612494318899</v>
+        <v>1.478846156926563</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.167128722153413</v>
@@ -12233,7 +12005,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.44085476861584</v>
+        <v>1.477466781088019</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.335198344627903</v>
@@ -12322,7 +12094,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.44668642916227</v>
+        <v>1.483805878567412</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.421202137152614</v>
@@ -12411,7 +12183,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.464031226374936</v>
+        <v>1.501863650832357</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.412071484288599</v>
@@ -12500,7 +12272,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.469053259820163</v>
+        <v>1.506809071853527</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.33804452575187</v>
@@ -12589,7 +12361,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.470039816042152</v>
+        <v>1.50816307702687</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.400874262246095</v>
@@ -12678,7 +12450,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.510675137825301</v>
+        <v>1.551427346040966</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.16869139095032</v>
@@ -12767,7 +12539,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.522999230105725</v>
+        <v>1.557853996777424</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.319741018547536</v>
@@ -12856,7 +12628,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.487866294805017</v>
+        <v>1.519798556585004</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.348801499398939</v>
@@ -12945,7 +12717,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.455734489987157</v>
+        <v>1.496784154728758</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.402362599314436</v>
@@ -13034,7 +12806,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.425369531972658</v>
+        <v>1.464583666597982</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.372296825124302</v>
@@ -13123,7 +12895,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.419521092650718</v>
+        <v>1.460595300113821</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.406108423530551</v>
@@ -13212,7 +12984,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.417861347620385</v>
+        <v>1.461534934841947</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.617999513033734</v>
@@ -13301,7 +13073,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.451724157637527</v>
+        <v>1.499920801089675</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.286770289447116</v>
@@ -13390,7 +13162,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.436374151479893</v>
+        <v>1.480832121491006</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.454875951893399</v>
@@ -13479,7 +13251,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.448511474910277</v>
+        <v>1.4888898468657</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.418160478714711</v>
@@ -13568,7 +13340,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.428167748468252</v>
+        <v>1.473816759153809</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.443822159253821</v>
@@ -13657,7 +13429,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.410504897126285</v>
+        <v>1.455990363244217</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.520825147282856</v>
@@ -13746,7 +13518,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.401382068362476</v>
+        <v>1.447812374241701</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.526871198152752</v>
@@ -13835,7 +13607,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.382051447582426</v>
+        <v>1.426471259786802</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.583914551098329</v>
@@ -13924,7 +13696,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.352726840897815</v>
+        <v>1.387099407581474</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.759859047556714</v>
@@ -14013,7 +13785,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.267749588147606</v>
+        <v>1.289585510470526</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.669178391673244</v>
@@ -14102,7 +13874,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.274656537451305</v>
+        <v>1.298038063498035</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.741845663214459</v>
@@ -14191,7 +13963,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.296182268053755</v>
+        <v>1.323229820312394</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.740601171210289</v>
@@ -14280,7 +14052,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.296060381510139</v>
+        <v>1.322695026290741</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.73550021871501</v>
@@ -14369,7 +14141,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.302786474623293</v>
+        <v>1.324407598015332</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.696375910125002</v>
@@ -14458,7 +14230,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.301849733166024</v>
+        <v>1.326869558042764</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.693095747964981</v>
@@ -14547,7 +14319,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.290092759845001</v>
+        <v>1.315524608741328</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.722007789823489</v>
@@ -14636,7 +14408,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.269032059206483</v>
+        <v>1.292717877385049</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.729624368417973</v>
@@ -14725,7 +14497,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.272290633214751</v>
+        <v>1.297094516008047</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.774310542774309</v>
@@ -14814,7 +14586,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.252830202208233</v>
+        <v>1.269214993503354</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.766045244810324</v>
@@ -14903,7 +14675,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.254928517070691</v>
+        <v>1.267485093423174</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.793170724059475</v>
@@ -14992,7 +14764,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.227710610666146</v>
+        <v>1.236756113486699</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.827220217421422</v>
@@ -15081,7 +14853,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.228236627472176</v>
+        <v>1.234841544807764</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.857992868802106</v>
@@ -15367,7 +15139,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.170014427057456</v>
+        <v>1.152634314453696</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.679180986477779</v>
@@ -15456,7 +15228,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.172181837164124</v>
+        <v>1.15521228906283</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.676315658089838</v>
@@ -15545,7 +15317,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.17093091054335</v>
+        <v>1.154400572172834</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.69017222211572</v>
@@ -15634,7 +15406,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.171833144889278</v>
+        <v>1.153708014166652</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.670478893050857</v>
@@ -15723,7 +15495,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.157174801447296</v>
+        <v>1.131961552473433</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.665770926695325</v>
@@ -15812,7 +15584,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.168403866894736</v>
+        <v>1.138727772825692</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.659056151670928</v>
@@ -15901,7 +15673,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.162810243122008</v>
+        <v>1.134442186104159</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.661043677890905</v>
@@ -15990,7 +15762,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.183275914344538</v>
+        <v>1.15323558145076</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.619794212908324</v>
@@ -16079,7 +15851,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.180275183257808</v>
+        <v>1.149734071697037</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.644080571263317</v>
@@ -16168,7 +15940,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.188107894241629</v>
+        <v>1.151158690737403</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.675836616255941</v>
@@ -16257,7 +16029,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.170714143951462</v>
+        <v>1.134128792926365</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.728508572610371</v>
@@ -16346,7 +16118,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.161598684986039</v>
+        <v>1.126527892872398</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.738597424295544</v>
@@ -16435,7 +16207,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.170920891469277</v>
+        <v>1.132619585483507</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.763673099669539</v>
@@ -16524,7 +16296,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.17054391531787</v>
+        <v>1.133574345717677</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.780023514843593</v>
@@ -16613,7 +16385,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.179481593579687</v>
+        <v>1.145098838141657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.840610050032417</v>
@@ -16702,7 +16474,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.189931695035733</v>
+        <v>1.156764132391281</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.792904220879891</v>
@@ -16791,7 +16563,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.19221909981711</v>
+        <v>1.157407865094236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.828064487711415</v>
@@ -16880,7 +16652,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.189356442564</v>
+        <v>1.154446895832232</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.796797031528344</v>
@@ -16969,7 +16741,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.189833773861181</v>
+        <v>1.156615533294647</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.786756642000556</v>
@@ -17058,7 +16830,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.195557111237608</v>
+        <v>1.161636346627513</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.74674860128959</v>
@@ -17147,7 +16919,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.201127579247197</v>
+        <v>1.165226679965077</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.649995775380717</v>
@@ -17236,7 +17008,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.22030146993344</v>
+        <v>1.181057553975548</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.606822818672916</v>
@@ -17325,7 +17097,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.228318993879081</v>
+        <v>1.188783560079122</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.59162553345837</v>
@@ -17414,7 +17186,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.232742522620345</v>
+        <v>1.196414647604845</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.61652159987826</v>
@@ -17503,7 +17275,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.273775055821183</v>
+        <v>1.245799559059334</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.535509576908038</v>
@@ -17592,7 +17364,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.316022604464581</v>
+        <v>1.282339736642604</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.62354005838793</v>
@@ -17681,7 +17453,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.386317706522969</v>
+        <v>1.343978491798367</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.586710509830377</v>
@@ -17770,7 +17542,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.415456773140739</v>
+        <v>1.404483109734784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.419300178682311</v>
@@ -17859,7 +17631,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.405051016722456</v>
+        <v>1.388294744352362</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.254248746761103</v>
@@ -17948,7 +17720,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.365562056565719</v>
+        <v>1.345339487990697</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.342582202482175</v>
@@ -18037,7 +17809,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.357556648849165</v>
+        <v>1.325661589275142</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.329418451239085</v>
@@ -18126,7 +17898,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.326027291412319</v>
+        <v>1.304068820249441</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.185762980822925</v>
@@ -18215,7 +17987,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.309266263105712</v>
+        <v>1.288623795955211</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.086433414980561</v>
@@ -18304,7 +18076,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.308958681145681</v>
+        <v>1.289454045609909</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.304596977636148</v>
@@ -18393,7 +18165,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.306914698798794</v>
+        <v>1.290918663529475</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.252143301321381</v>
@@ -18482,7 +18254,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.30241926490414</v>
+        <v>1.290791453889032</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.314389966685753</v>
@@ -18571,7 +18343,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.301363722865411</v>
+        <v>1.290128133014689</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.243481754218402</v>
@@ -18660,7 +18432,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.292532402195264</v>
+        <v>1.280340214122242</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.28385942855714</v>
@@ -18749,7 +18521,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.301440403701358</v>
+        <v>1.289010200217446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.227136338122222</v>
@@ -18838,7 +18610,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.292886658399716</v>
+        <v>1.280281325793488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.235293820188582</v>
@@ -18927,7 +18699,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.288611618661424</v>
+        <v>1.275805439904083</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.214416594394641</v>
@@ -19016,7 +18788,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.289669100677836</v>
+        <v>1.274830295788755</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.218842997952579</v>
@@ -19105,7 +18877,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.304668643060909</v>
+        <v>1.292010805909744</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.163940683004122</v>
@@ -19194,7 +18966,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.330381626129897</v>
+        <v>1.310273321133569</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.101022464521866</v>
@@ -19283,7 +19055,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.340453380628964</v>
+        <v>1.324041478105098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.146346618058275</v>
@@ -19372,7 +19144,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.356878544417381</v>
+        <v>1.338539848282347</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.222740026023898</v>
@@ -19461,7 +19233,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376184411974493</v>
+        <v>1.359700505830481</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.238463639588046</v>
@@ -19550,7 +19322,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.43400670334139</v>
+        <v>1.413182157986526</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.277745238043118</v>
@@ -19639,7 +19411,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.444147355112588</v>
+        <v>1.421678494708519</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.319351468814158</v>
@@ -19728,7 +19500,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.450323166791447</v>
+        <v>1.424769434561399</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.401004279058554</v>
@@ -19817,7 +19589,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.460914899109684</v>
+        <v>1.434760521203096</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.329344236507477</v>
@@ -19906,7 +19678,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.462083935790219</v>
+        <v>1.438072497228285</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.268740311466205</v>
@@ -19995,7 +19767,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.460702352613512</v>
+        <v>1.436257033932171</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.29189527234392</v>
@@ -20084,7 +19856,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.486321354544375</v>
+        <v>1.461662021011502</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.138729020080992</v>
@@ -20173,7 +19945,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.488437044688372</v>
+        <v>1.459579874989323</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.325722611624053</v>
@@ -20262,7 +20034,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.470041987298353</v>
+        <v>1.448800676499553</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.370024750806304</v>
@@ -20351,7 +20123,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.439647955750065</v>
+        <v>1.426705766037442</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.355127543087763</v>
@@ -20440,7 +20212,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.416010801189784</v>
+        <v>1.408074151336103</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.373554657944316</v>
@@ -20529,7 +20301,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.416614838848716</v>
+        <v>1.414164708224017</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.536041177896151</v>
@@ -20618,7 +20390,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.411615380872087</v>
+        <v>1.411115686662756</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.565219540547711</v>
@@ -20707,7 +20479,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.422260881111118</v>
+        <v>1.42243097651934</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.52067231631258</v>
@@ -20796,7 +20568,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.414710548337808</v>
+        <v>1.415534683394623</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.58715977677971</v>
@@ -20885,7 +20657,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.414557432045997</v>
+        <v>1.408462200310352</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.4756353627531</v>
@@ -20974,7 +20746,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.391629721407061</v>
+        <v>1.389783362327328</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.510853949150799</v>
@@ -21063,7 +20835,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.376355723909411</v>
+        <v>1.376701470135987</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.461778083411886</v>
@@ -21152,7 +20924,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.368702060457178</v>
+        <v>1.369129082870028</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.500460118756275</v>
@@ -21241,7 +21013,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.343359470326563</v>
+        <v>1.344702277691633</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.466761697870729</v>
@@ -21330,7 +21102,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.327801423839036</v>
+        <v>1.324080262408424</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.915660750770836</v>
@@ -21419,7 +21191,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.263203273317833</v>
+        <v>1.262509159509651</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.795456445646926</v>
@@ -21508,7 +21280,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.278397946682032</v>
+        <v>1.273653951206227</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.734734739195924</v>
@@ -21597,7 +21369,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.269934136212938</v>
+        <v>1.269655305293941</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.816394645435207</v>
@@ -21686,7 +21458,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.270448933861419</v>
+        <v>1.266256701388309</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.809013886090028</v>
@@ -21775,7 +21547,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.281114585701735</v>
+        <v>1.273225969948029</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.84631695414467</v>
@@ -21864,7 +21636,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.281882530015569</v>
+        <v>1.275437522941508</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.81129144708565</v>
@@ -21953,7 +21725,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.271270553755417</v>
+        <v>1.265488420673924</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.795520227425158</v>
@@ -22042,7 +21814,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.266926703868158</v>
+        <v>1.26256487221137</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.848801716431351</v>
@@ -22131,7 +21903,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.256237762410244</v>
+        <v>1.244041850686267</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.854709427576375</v>
@@ -22220,7 +21992,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.231324864355996</v>
+        <v>1.227011718192109</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.910196211337009</v>
@@ -22309,7 +22081,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.230503323022073</v>
+        <v>1.215940045386644</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.962095572512924</v>
@@ -22398,7 +22170,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.215779817623429</v>
+        <v>1.207378176729705</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.989577042852427</v>
@@ -22487,7 +22259,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.219413723908445</v>
+        <v>1.209783342412948</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.976227694575627</v>
@@ -22773,7 +22545,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542311555826473</v>
+        <v>1.546127111472224</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.451753552053471</v>
@@ -22862,7 +22634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540021574402011</v>
+        <v>1.547802336912697</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.523729561685909</v>
@@ -22951,7 +22723,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530396918880925</v>
+        <v>1.542176740975593</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.426785705821061</v>
@@ -23040,7 +22812,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521716943005787</v>
+        <v>1.530924957446371</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.494190955083763</v>
@@ -23129,7 +22901,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.498558065693113</v>
+        <v>1.503320236957059</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.371281622403452</v>
@@ -23218,7 +22990,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491704345019468</v>
+        <v>1.487441924481314</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.408780011120264</v>
@@ -23307,7 +23079,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49268567955328</v>
+        <v>1.489546322962469</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.394133891867393</v>
@@ -23396,7 +23168,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.520203999479694</v>
+        <v>1.522125522548099</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.477528466175911</v>
@@ -23485,7 +23257,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.525324130420741</v>
+        <v>1.530548180818564</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.435577382277396</v>
@@ -23574,7 +23346,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526265497105748</v>
+        <v>1.528597412452467</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.450703804872311</v>
@@ -23663,7 +23435,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.530186942754013</v>
+        <v>1.538552224748655</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.470580922840446</v>
@@ -23752,7 +23524,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.518706650889062</v>
+        <v>1.527618364315668</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.571177301875008</v>
@@ -23841,7 +23613,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.514428057030283</v>
+        <v>1.522903230123242</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.583724641651129</v>
@@ -23930,7 +23702,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.509550593026271</v>
+        <v>1.516662806545724</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.572457337391079</v>
@@ -24019,7 +23791,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517720661207471</v>
+        <v>1.529132908209709</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.425670084295884</v>
@@ -24108,7 +23880,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53329182823456</v>
+        <v>1.534092433104743</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.507903083647784</v>
@@ -24197,7 +23969,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.515689623926939</v>
+        <v>1.509652681708515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.565265478190813</v>
@@ -24286,7 +24058,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515603916860824</v>
+        <v>1.506107670326827</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.690687136326439</v>
@@ -24375,7 +24147,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.512775320559919</v>
+        <v>1.508900841585697</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.572063309935817</v>
@@ -24464,7 +24236,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.521033115961989</v>
+        <v>1.517510358788006</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.494809040328849</v>
@@ -24553,7 +24325,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.539595120778758</v>
+        <v>1.540133459147296</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.438291831053589</v>
@@ -24642,7 +24414,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.542053015485074</v>
+        <v>1.540315588342084</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.429822633960444</v>
@@ -24731,7 +24503,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532258425626308</v>
+        <v>1.527371357971246</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.332446942311459</v>
@@ -24820,7 +24592,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.530457066741403</v>
+        <v>1.521250029641853</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.451138953148909</v>
@@ -24909,7 +24681,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.544512994373601</v>
+        <v>1.539148594183543</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.123138097394797</v>
@@ -24998,7 +24770,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535678598105233</v>
+        <v>1.52002338362834</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.131173671943139</v>
@@ -25087,7 +24859,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568886688011081</v>
+        <v>1.548256150634995</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.108765000823649</v>
@@ -25176,7 +24948,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601070457998672</v>
+        <v>1.578052410945859</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.120250287929549</v>
@@ -25265,7 +25037,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576591242078383</v>
+        <v>1.555287336458084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.082627223501332</v>
@@ -25354,7 +25126,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.554331268601882</v>
+        <v>1.525037423362545</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.079885004164874</v>
@@ -25443,7 +25215,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529889285458476</v>
+        <v>1.506825495304284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.263659349912439</v>
@@ -25532,7 +25304,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.52273504845655</v>
+        <v>1.507963587212996</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.366067844158729</v>
@@ -25621,7 +25393,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.539572216003544</v>
+        <v>1.517732674075122</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.280737480172625</v>
@@ -25710,7 +25482,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.531436382017538</v>
+        <v>1.51707735601661</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.422610488067756</v>
@@ -25799,7 +25571,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.533263199158803</v>
+        <v>1.519926541453122</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.454625340822412</v>
@@ -25888,7 +25660,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.541908323607012</v>
+        <v>1.528480003280638</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.535514192608077</v>
@@ -25977,7 +25749,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.542335601516571</v>
+        <v>1.528289322525088</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.447541396046085</v>
@@ -26066,7 +25838,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.528661546931546</v>
+        <v>1.516066103278027</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.552926386245001</v>
@@ -26155,7 +25927,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.518862162532526</v>
+        <v>1.515812093403117</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.743236167752427</v>
@@ -26244,7 +26016,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.496433229832341</v>
+        <v>1.495937798581956</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.572543242398181</v>
@@ -26333,7 +26105,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.501996227377194</v>
+        <v>1.503137289908208</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.390082294556331</v>
@@ -26422,7 +26194,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.495950449242555</v>
+        <v>1.499960739044158</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.447465968357503</v>
@@ -26511,7 +26283,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.516239262651614</v>
+        <v>1.521524906469556</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.657167132122383</v>
@@ -26600,7 +26372,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.550499350161477</v>
+        <v>1.557752971248209</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.920458328817589</v>
@@ -26689,7 +26461,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569075767659057</v>
+        <v>1.582741356206961</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.845285820914629</v>
@@ -26778,7 +26550,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595631036373769</v>
+        <v>1.601958524809507</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.841702142440546</v>
@@ -26867,7 +26639,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604165943715586</v>
+        <v>1.620024883411201</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.810183324181966</v>
@@ -26956,7 +26728,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613590967235099</v>
+        <v>1.634098504231282</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.645703212957372</v>
@@ -27045,7 +26817,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.625202509703965</v>
+        <v>1.647753934844727</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.757837620105412</v>
@@ -27134,7 +26906,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638922422054655</v>
+        <v>1.660820999881137</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.857203173984368</v>
@@ -27223,7 +26995,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640226999777033</v>
+        <v>1.660131095459569</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.949429507147578</v>
@@ -27312,7 +27084,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.649138823570034</v>
+        <v>1.673943273769662</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.890814576061076</v>
@@ -27401,7 +27173,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.65445831789486</v>
+        <v>1.678085867661803</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.99987878747951</v>
@@ -27490,7 +27262,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.685285947379505</v>
+        <v>1.706736193995804</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.575728909842979</v>
@@ -27579,7 +27351,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.679591582430918</v>
+        <v>1.697715807361493</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.025523183176842</v>
@@ -27668,7 +27440,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.662823662500851</v>
+        <v>1.680614843008907</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.817215272136738</v>
@@ -27757,7 +27529,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.64991198979197</v>
+        <v>1.670180863168624</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.789367337218334</v>
@@ -27846,7 +27618,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628581107182242</v>
+        <v>1.651193551486315</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.97177081319534</v>
@@ -27935,7 +27707,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.624003485998476</v>
+        <v>1.648895413326599</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.932647246500133</v>
@@ -28024,7 +27796,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.61033496158335</v>
+        <v>1.638174734183395</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.957506353377144</v>
@@ -28113,7 +27885,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.619103243346019</v>
+        <v>1.645158072658566</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.624036805148954</v>
@@ -28202,7 +27974,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.612071604876167</v>
+        <v>1.637372031131426</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.760364112779869</v>
@@ -28291,7 +28063,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.6318448613318</v>
+        <v>1.654935805511643</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.919826042244325</v>
@@ -28380,7 +28152,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.615422358270863</v>
+        <v>1.641828145620837</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.946944568292093</v>
@@ -28469,7 +28241,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.597467677937077</v>
+        <v>1.624843448472499</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.933392706740793</v>
@@ -28558,7 +28330,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.603822313071984</v>
+        <v>1.629268727763005</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.974690967136213</v>
@@ -28647,7 +28419,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.593000675068303</v>
+        <v>1.619128391855051</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.75835238676845</v>
@@ -28736,7 +28508,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.565953390190969</v>
+        <v>1.59038922047249</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.982999202472783</v>
@@ -28825,7 +28597,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.553078656501957</v>
+        <v>1.570575013340259</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.578881576213305</v>
@@ -28914,7 +28686,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.574075957922398</v>
+        <v>1.584341200097185</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.478305862188802</v>
@@ -29003,7 +28775,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.592307990086849</v>
+        <v>1.606080809521167</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.453496937149995</v>
@@ -29092,7 +28864,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.586183947797833</v>
+        <v>1.60414200438261</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.471563697456265</v>
@@ -29181,7 +28953,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.591345561358292</v>
+        <v>1.602950967692956</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.552657685581849</v>
@@ -29270,7 +29042,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.580222310438439</v>
+        <v>1.588611836823137</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.606352815088801</v>
@@ -29359,7 +29131,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.578664300058492</v>
+        <v>1.582389944914519</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.5961607928618</v>
@@ -29448,7 +29220,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.591200146627925</v>
+        <v>1.595006741600183</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.661966850582008</v>
@@ -29537,7 +29309,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.598578124225182</v>
+        <v>1.596190919555238</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.44887295995256</v>
@@ -29626,7 +29398,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.553876496757093</v>
+        <v>1.558311548984351</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.505412959567972</v>
@@ -29715,7 +29487,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.534093454430595</v>
+        <v>1.527842467194883</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.466999759065808</v>
@@ -29804,7 +29576,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.507673416277402</v>
+        <v>1.505636054851243</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.617221901444049</v>
@@ -29893,7 +29665,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.492483732821369</v>
+        <v>1.49422255065936</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.631760499335579</v>
@@ -30179,7 +29951,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.333798813048483</v>
+        <v>1.316681641198829</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.919657808694536</v>
@@ -30268,7 +30040,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.315875929159915</v>
+        <v>1.30391045028648</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.96169972577827</v>
@@ -30357,7 +30129,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.319102688272895</v>
+        <v>1.305779267465486</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.971366722744923</v>
@@ -30446,7 +30218,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.322501970833604</v>
+        <v>1.304216226405811</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.951354610939444</v>
@@ -30535,7 +30307,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.294265394645564</v>
+        <v>1.272604124093307</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.905461409269445</v>
@@ -30624,7 +30396,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.298770072970781</v>
+        <v>1.268881335037852</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.935937694897259</v>
@@ -30713,7 +30485,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.299880911142134</v>
+        <v>1.272140665718883</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.903818633217905</v>
@@ -30802,7 +30574,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.305425803426948</v>
+        <v>1.280407741752926</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.924203703032723</v>
@@ -30891,7 +30663,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.304836934086897</v>
+        <v>1.281640212823866</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.942122294761989</v>
@@ -30980,7 +30752,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.299790156308983</v>
+        <v>1.278938914679804</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.926961993153425</v>
@@ -31069,7 +30841,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.308859280865329</v>
+        <v>1.291726835210525</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.962130170623509</v>
@@ -31158,7 +30930,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.327801364259639</v>
+        <v>1.306730278223913</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.010075027017926</v>
@@ -31247,7 +31019,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.334007340317989</v>
+        <v>1.316473987926904</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.027131734179141</v>
@@ -31336,7 +31108,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330349389454958</v>
+        <v>1.313982435642956</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.045865442256645</v>
@@ -31425,7 +31197,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.350197209499752</v>
+        <v>1.330514859876974</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.929121615765674</v>
@@ -31514,7 +31286,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40235895678188</v>
+        <v>1.375623952933041</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.831896444819639</v>
@@ -31603,7 +31375,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.351803675025121</v>
+        <v>1.318208889494972</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.866662442109388</v>
@@ -31692,7 +31464,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346642873027475</v>
+        <v>1.317624375146905</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.850329859589098</v>
@@ -31781,7 +31553,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.326838441062776</v>
+        <v>1.297161468558478</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.895629996406433</v>
@@ -31870,7 +31642,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.331529858907646</v>
+        <v>1.302098144389044</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.853876080249554</v>
@@ -31959,7 +31731,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.328302715160041</v>
+        <v>1.306627087412868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.833096431526059</v>
@@ -32048,7 +31820,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.322477257136151</v>
+        <v>1.298216617514372</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.818365752789706</v>
@@ -32137,7 +31909,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.311738728479401</v>
+        <v>1.287698813774578</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.817084367179164</v>
@@ -32226,7 +31998,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.321724217798931</v>
+        <v>1.296592262568717</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.851416907001854</v>
@@ -32315,7 +32087,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.305983007693989</v>
+        <v>1.280111625435373</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.782428418132326</v>
@@ -32404,7 +32176,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.289175558878447</v>
+        <v>1.256387253159048</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.803544194826938</v>
@@ -32493,7 +32265,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.265287332240608</v>
+        <v>1.235065509935434</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.83110639244486</v>
@@ -32582,7 +32354,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.250418398375593</v>
+        <v>1.216366567103502</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.755182494233147</v>
@@ -32671,7 +32443,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.242691535521871</v>
+        <v>1.20657394335447</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.770331019525842</v>
@@ -32760,7 +32532,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.223246167342529</v>
+        <v>1.1852348006674</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.812519462639091</v>
@@ -32849,7 +32621,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.238360434761223</v>
+        <v>1.198002241850063</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.604135256892101</v>
@@ -32938,7 +32710,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.223241430836757</v>
+        <v>1.195337008367431</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.316955353529752</v>
@@ -33027,7 +32799,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.223584704000987</v>
+        <v>1.195192135447167</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.250688517608447</v>
@@ -33116,7 +32888,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.234434036065111</v>
+        <v>1.204325311128942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.191946156300644</v>
@@ -33205,7 +32977,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.230291794657117</v>
+        <v>1.198191234037158</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.0407668708479</v>
@@ -33294,7 +33066,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.233128012588169</v>
+        <v>1.200339136943411</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.203800665843465</v>
@@ -33383,7 +33155,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.231336507379228</v>
+        <v>1.199162199510304</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.183136659091213</v>
@@ -33472,7 +33244,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.240529877026159</v>
+        <v>1.209535201357496</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.235609303230168</v>
@@ -33561,7 +33333,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.241414097182728</v>
+        <v>1.212843696858547</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.057289026900235</v>
@@ -33650,7 +33422,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.245078957797112</v>
+        <v>1.21611551463793</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.121011620989285</v>
@@ -33739,7 +33511,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.251569226613714</v>
+        <v>1.220186569363494</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.918437660726628</v>
@@ -33828,7 +33600,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.243219294360891</v>
+        <v>1.215431395229779</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.158153009718693</v>
@@ -33917,7 +33689,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.244786723107427</v>
+        <v>1.220266522343401</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.007773115711007</v>
@@ -34006,7 +33778,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.264408299125967</v>
+        <v>1.242574154760035</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.12067959742813</v>
@@ -34095,7 +33867,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.287632014195468</v>
+        <v>1.270759632140103</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.001160541122609</v>
@@ -34184,7 +33956,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.291146306576402</v>
+        <v>1.271969536356493</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.166739644175652</v>
@@ -34273,7 +34045,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.300576287957905</v>
+        <v>1.277470284913769</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.16941558599215</v>
@@ -34362,7 +34134,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.292168040830862</v>
+        <v>1.277230872274288</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.046291384072985</v>
@@ -34451,7 +34223,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.303883604534573</v>
+        <v>1.29003242592865</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.15926814245763</v>
@@ -34540,7 +34312,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.323066438525031</v>
+        <v>1.307432548606307</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.19222200275036</v>
@@ -34629,7 +34401,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.327170362613583</v>
+        <v>1.312660926085158</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.322993860122178</v>
@@ -34718,7 +34490,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.32085935471591</v>
+        <v>1.309700971363682</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.210160483805298</v>
@@ -34807,7 +34579,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.307812277684527</v>
+        <v>1.293531419158608</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.235286151550378</v>
@@ -34896,7 +34668,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.310636875244725</v>
+        <v>1.296765682461704</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.159348118755102</v>
@@ -34985,7 +34757,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.311952791093002</v>
+        <v>1.300064579608629</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.210140445884842</v>
@@ -35074,7 +34846,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.327486517081743</v>
+        <v>1.316866745006958</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.191956958747017</v>
@@ -35163,7 +34935,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.348789157403293</v>
+        <v>1.337269699177065</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.299551140324929</v>
@@ -35252,7 +35024,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.341623885845428</v>
+        <v>1.330127200962592</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.457751633095784</v>
@@ -35341,7 +35113,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.346577216116812</v>
+        <v>1.331113230625445</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.046065634665722</v>
@@ -35430,7 +35202,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.335605504434948</v>
+        <v>1.325468546936738</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.233881482550777</v>
@@ -35519,7 +35291,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.33157835851529</v>
+        <v>1.321262986603498</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.235108168017431</v>
@@ -35608,7 +35380,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.349416869740838</v>
+        <v>1.340162430311024</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.442949434245676</v>
@@ -35697,7 +35469,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.354027118601763</v>
+        <v>1.338057346229797</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.368990978771081</v>
@@ -35786,7 +35558,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.333700868441365</v>
+        <v>1.31870783565079</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.192712373517256</v>
@@ -35875,7 +35647,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.331047293869043</v>
+        <v>1.321248495836422</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.174533821548418</v>
@@ -35964,7 +35736,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.328485825153052</v>
+        <v>1.318668038013417</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.325185711145104</v>
@@ -36053,7 +35825,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.324871513118063</v>
+        <v>1.313347929105092</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.141776349786122</v>
@@ -36142,7 +35914,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.307258565690297</v>
+        <v>1.292131500224401</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.876264648996071</v>
@@ -36231,7 +36003,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.281769685522404</v>
+        <v>1.263625716003506</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.915531488731262</v>
@@ -36320,7 +36092,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.320298918667437</v>
+        <v>1.293430166875159</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.972483483947921</v>
@@ -36409,7 +36181,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.315961645087282</v>
+        <v>1.298696959799746</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.011593241770711</v>
@@ -36498,7 +36270,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.323157169551069</v>
+        <v>1.307622909824936</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.018679721182528</v>
@@ -36587,7 +36359,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.337910706851501</v>
+        <v>1.320552288293636</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.993757406053989</v>
@@ -36676,7 +36448,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.337382955642756</v>
+        <v>1.324759085015287</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.013475542865719</v>
@@ -36765,7 +36537,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.349297058286509</v>
+        <v>1.341449289080878</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.062588331952109</v>
@@ -36854,7 +36626,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.371501663105629</v>
+        <v>1.36414235814924</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.050470149349039</v>
@@ -36943,7 +36715,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.389982328329066</v>
+        <v>1.369255153084791</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.873133698646323</v>
@@ -37032,7 +36804,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.340185833325097</v>
+        <v>1.333635396660672</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.810013020305485</v>
@@ -37121,7 +36893,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.315028803449861</v>
+        <v>1.294445409906652</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.691487654765853</v>
@@ -37210,7 +36982,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.304871942686593</v>
+        <v>1.286787945569281</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.702242330257012</v>
@@ -37299,7 +37071,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.309571615803527</v>
+        <v>1.288536358618594</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.701145717879684</v>
@@ -37585,7 +37357,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.236807392537418</v>
+        <v>1.233326433769752</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.906135447351638</v>
@@ -37674,7 +37446,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.224921378923207</v>
+        <v>1.222216923708459</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.857823109531491</v>
@@ -37763,7 +37535,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.225193117059265</v>
+        <v>1.223952110534038</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.880809019098113</v>
@@ -37852,7 +37624,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.209375985818019</v>
+        <v>1.205196263742593</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.936268086857553</v>
@@ -37941,7 +37713,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.173510474434535</v>
+        <v>1.16009622265508</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.806805197577743</v>
@@ -38030,7 +37802,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.170710218058999</v>
+        <v>1.152288529687393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.834976754175576</v>
@@ -38119,7 +37891,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.177523715363134</v>
+        <v>1.15598121724431</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.904481711477731</v>
@@ -38208,7 +37980,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.178630017878142</v>
+        <v>1.155428413745341</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.824583259607671</v>
@@ -38297,7 +38069,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.169351022433968</v>
+        <v>1.149666222402967</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.856064684403051</v>
@@ -38386,7 +38158,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.173824848066977</v>
+        <v>1.153223622063429</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.852216934663426</v>
@@ -38475,7 +38247,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.169346672800882</v>
+        <v>1.147239176973366</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.859483999847992</v>
@@ -38564,7 +38336,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.163915703806381</v>
+        <v>1.14610039109902</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.859444415276779</v>
@@ -38653,7 +38425,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.167698406465365</v>
+        <v>1.149289217827272</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.860037543491037</v>
@@ -38742,7 +38514,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.170158171956943</v>
+        <v>1.152581297224071</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.852239770009402</v>
@@ -38831,7 +38603,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.192629756798004</v>
+        <v>1.174225924182362</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.916026900110964</v>
@@ -38920,7 +38692,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.225282361127234</v>
+        <v>1.212989356312976</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.265997440005044</v>
@@ -39009,7 +38781,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.22336599774916</v>
+        <v>1.212443027980562</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.492106413973477</v>
@@ -39098,7 +38870,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.219241059390683</v>
+        <v>1.204339179810647</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.272940556898932</v>
@@ -39187,7 +38959,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.230884434389661</v>
+        <v>1.219654901955652</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.236360353200406</v>
@@ -39276,7 +39048,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.237311873642948</v>
+        <v>1.22723092732309</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.4514493560079</v>
@@ -39365,7 +39137,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.233056734336201</v>
+        <v>1.227731820374422</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.449773587006467</v>
@@ -39454,7 +39226,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.241277508032928</v>
+        <v>1.238699179654993</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.269198902943901</v>
@@ -39543,7 +39315,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.245799883628232</v>
+        <v>1.2436232215521</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.178601967385699</v>
@@ -39632,7 +39404,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.241484055788569</v>
+        <v>1.239521708275869</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.26415414853774</v>
@@ -39721,7 +39493,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.246083328314837</v>
+        <v>1.243720480921697</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.249729350342119</v>
@@ -39810,7 +39582,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.258229449436002</v>
+        <v>1.25544234603676</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.958095749823556</v>
@@ -39899,7 +39671,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.270559956134863</v>
+        <v>1.267078034088494</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.084542711156458</v>
@@ -39988,7 +39760,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.268758556649526</v>
+        <v>1.26665121276799</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.149498614817817</v>
@@ -40077,7 +39849,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.261868089746033</v>
+        <v>1.248227219495754</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.048499543515284</v>
@@ -40166,7 +39938,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.230235095614894</v>
+        <v>1.217903865451088</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.163164035567436</v>
@@ -40255,7 +40027,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.239330342831844</v>
+        <v>1.212494068182485</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.073873259531615</v>
@@ -40344,7 +40116,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.205121881048289</v>
+        <v>1.184154319539647</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.965450321913773</v>
@@ -40433,7 +40205,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.186524481473058</v>
+        <v>1.167754687256004</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.928546797747882</v>
@@ -40522,7 +40294,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.18956819573531</v>
+        <v>1.173355560730914</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.051187325028095</v>
@@ -40611,7 +40383,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.190051572137293</v>
+        <v>1.174606123873386</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.99602297831637</v>
@@ -40700,7 +40472,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.188933434091961</v>
+        <v>1.17341259844108</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.038282889629233</v>
@@ -40789,7 +40561,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.186091189224144</v>
+        <v>1.169373289973041</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.969543421215236</v>
@@ -40878,7 +40650,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.185963560373623</v>
+        <v>1.17065825672605</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.127681757834042</v>
@@ -40967,7 +40739,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.190513969412772</v>
+        <v>1.177983133535168</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.080421484403617</v>
@@ -41056,7 +40828,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.184675322561631</v>
+        <v>1.173161877989938</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.055032430465359</v>
@@ -41145,7 +40917,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.184559747520612</v>
+        <v>1.173245894031929</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.002931808503619</v>
@@ -41234,7 +41006,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.182930814566816</v>
+        <v>1.171275739439186</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.029075157228621</v>
@@ -41323,7 +41095,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.197096106818134</v>
+        <v>1.18705780958963</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.070338284961438</v>
@@ -41412,7 +41184,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.210549122823479</v>
+        <v>1.202354970723249</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.928606304950101</v>
@@ -41501,7 +41273,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.220020543218399</v>
+        <v>1.218210609565015</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.993309844074592</v>
@@ -41590,7 +41362,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.240073425540903</v>
+        <v>1.23570526349229</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.093162668805721</v>
@@ -41679,7 +41451,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.250414551464677</v>
+        <v>1.251868105258212</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.022831069693481</v>
@@ -41768,7 +41540,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.290021626679223</v>
+        <v>1.292671892574669</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.068721817636279</v>
@@ -41857,7 +41629,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.293297693334302</v>
+        <v>1.2959833616424</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.143578559112357</v>
@@ -41946,7 +41718,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.293056406220372</v>
+        <v>1.29499515518215</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.310643750290257</v>
@@ -42035,7 +41807,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.296471331605576</v>
+        <v>1.298343568337919</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.285628036635805</v>
@@ -42124,7 +41896,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.308722414515249</v>
+        <v>1.311461983058202</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.154057801779746</v>
@@ -42213,7 +41985,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.300951228365492</v>
+        <v>1.304680206392473</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.129845131210207</v>
@@ -42302,7 +42074,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.319283082399229</v>
+        <v>1.319471641313357</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.984293499972307</v>
@@ -42391,7 +42163,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.327500712805482</v>
+        <v>1.319502842714442</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.097656695001994</v>
@@ -42480,7 +42252,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.302941196026211</v>
+        <v>1.301239851316645</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.130679826509194</v>
@@ -42569,7 +42341,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.27719345201049</v>
+        <v>1.274856512435981</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.148487247040218</v>
@@ -42658,7 +42430,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.264724389994952</v>
+        <v>1.262277591549692</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.052800648462882</v>
@@ -42747,7 +42519,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.257202616451353</v>
+        <v>1.257462975571923</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.21469827453824</v>
@@ -42836,7 +42608,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.259552976535637</v>
+        <v>1.259854771857082</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.192246346878304</v>
@@ -42925,7 +42697,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.266913052625556</v>
+        <v>1.26936239588873</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.312332758705284</v>
@@ -43014,7 +42786,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.261691878691456</v>
+        <v>1.262426317198881</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.303385102200238</v>
@@ -43103,7 +42875,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.26944757699671</v>
+        <v>1.264623540204579</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.179073577894506</v>
@@ -43192,7 +42964,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.246436737845199</v>
+        <v>1.246035708571487</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.201076733220428</v>
@@ -43281,7 +43053,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.225656236564779</v>
+        <v>1.222905824999559</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.247286432027241</v>
@@ -43370,7 +43142,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.222374991609877</v>
+        <v>1.218850115064614</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.324542407635193</v>
@@ -43459,7 +43231,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.207935114633503</v>
+        <v>1.203706334965613</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.232262975115876</v>
@@ -43548,7 +43320,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.198450203503095</v>
+        <v>1.186710948075817</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.000566158034285</v>
@@ -43637,7 +43409,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.168357993167497</v>
+        <v>1.158268744446006</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.941516893459826</v>
@@ -43726,7 +43498,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.180039105307632</v>
+        <v>1.169799668821951</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.838981216513433</v>
@@ -43815,7 +43587,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.182569568235972</v>
+        <v>1.173567004991476</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.950354907584647</v>
@@ -43904,7 +43676,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.194126446018178</v>
+        <v>1.182314985859111</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.952032001930683</v>
@@ -43993,7 +43765,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.210553860056131</v>
+        <v>1.197711438300431</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.989149605974543</v>
@@ -44082,7 +43854,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.210754978613774</v>
+        <v>1.198475396660707</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.979236547756806</v>
@@ -44171,7 +43943,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.192786290938863</v>
+        <v>1.181071005294198</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.93341156573721</v>
@@ -44260,7 +44032,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.192041595537774</v>
+        <v>1.179123951159784</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.988173264018398</v>
@@ -44349,7 +44121,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.213289923960146</v>
+        <v>1.184999878076866</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.847748788091012</v>
@@ -44438,7 +44210,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.190129622044249</v>
+        <v>1.168695941949582</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.912762268564792</v>
@@ -44527,7 +44299,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.199077142329123</v>
+        <v>1.176700108262317</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.915087489639326</v>
@@ -44616,7 +44388,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.192727986083304</v>
+        <v>1.171291558461783</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.949879204552944</v>
@@ -44705,7 +44477,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.179225297796457</v>
+        <v>1.158950687955321</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.955297964013355</v>
@@ -44991,7 +44763,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.250221701420582</v>
+        <v>1.241005770493533</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.839404120020131</v>
@@ -45080,7 +44852,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.233444844529739</v>
+        <v>1.222475397889129</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.767596274012928</v>
@@ -45169,7 +44941,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.228477924203913</v>
+        <v>1.219844025148246</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.782558147674593</v>
@@ -45258,7 +45030,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.214967293607351</v>
+        <v>1.198724170939016</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.817850891748372</v>
@@ -45347,7 +45119,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.205802561295271</v>
+        <v>1.187370058399042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.822406506414757</v>
@@ -45436,7 +45208,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.211902615499749</v>
+        <v>1.191983157212241</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.829068414781003</v>
@@ -45525,7 +45297,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.233498475583935</v>
+        <v>1.215087556809451</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.764224385753678</v>
@@ -45614,7 +45386,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.251098066309064</v>
+        <v>1.237660999645403</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.810935272486603</v>
@@ -45703,7 +45475,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.258144826820105</v>
+        <v>1.250817170411633</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.826868259461101</v>
@@ -45792,7 +45564,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.265234959046682</v>
+        <v>1.257804098195639</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.822986609899833</v>
@@ -45881,7 +45653,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.260910266892309</v>
+        <v>1.253775373519437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.889149713537333</v>
@@ -45970,7 +45742,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.243063804780735</v>
+        <v>1.230301553365652</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.84776247356592</v>
@@ -46059,7 +45831,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.233270009980772</v>
+        <v>1.223660146446157</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.853320852048093</v>
@@ -46148,7 +45920,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.230967504756762</v>
+        <v>1.221256966561729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.874861205491478</v>
@@ -46237,7 +46009,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.232876993498445</v>
+        <v>1.22450325064031</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.829316142226233</v>
@@ -46326,7 +46098,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.241132339588391</v>
+        <v>1.239850919621349</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.80321226060538</v>
@@ -46415,7 +46187,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.240140062419501</v>
+        <v>1.23908825230504</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.843424757295869</v>
@@ -46504,7 +46276,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.246582793012929</v>
+        <v>1.24250770357619</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.810879921113562</v>
@@ -46593,7 +46365,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.247336969989713</v>
+        <v>1.24909084654871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.789612452440559</v>
@@ -46682,7 +46454,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.251498822304</v>
+        <v>1.252796522953872</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.759239102020354</v>
@@ -46771,7 +46543,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.242409863174188</v>
+        <v>1.244321965636729</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.753031687021396</v>
@@ -46860,7 +46632,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.23461692841849</v>
+        <v>1.234580207167962</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.732100883415699</v>
@@ -46949,7 +46721,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.223971344971056</v>
+        <v>1.220361739084807</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.69196672387536</v>
@@ -47038,7 +46810,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.212968223453826</v>
+        <v>1.206404597485108</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.656117384602899</v>
@@ -47127,7 +46899,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.211835667500241</v>
+        <v>1.204564445649473</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.677475122697272</v>
@@ -47216,7 +46988,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.198561950524221</v>
+        <v>1.189013759636998</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.568596472222253</v>
@@ -47305,7 +47077,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.245883245656625</v>
+        <v>1.239359514603744</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.636294048697759</v>
@@ -47394,7 +47166,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.242553632950707</v>
+        <v>1.243327203228871</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.949978190587049</v>
@@ -47483,7 +47255,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.22699053228787</v>
+        <v>1.222198550648241</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.906407425696321</v>
@@ -47572,7 +47344,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.236222607545852</v>
+        <v>1.233639293762787</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.065764822546214</v>
@@ -47661,7 +47433,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.280240361551596</v>
+        <v>1.2652543502222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.904438639331434</v>
@@ -47750,7 +47522,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.264062761520165</v>
+        <v>1.257574670669752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.097050589276565</v>
@@ -47839,7 +47611,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.256736524496911</v>
+        <v>1.251518785932895</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.044833643517565</v>
@@ -47928,7 +47700,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.257970397279323</v>
+        <v>1.259140182232919</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.248592797177432</v>
@@ -48017,7 +47789,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.276097278681017</v>
+        <v>1.278187220891575</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.168492940879433</v>
@@ -48106,7 +47878,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.279930242982908</v>
+        <v>1.284265242518164</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.30814828915892</v>
@@ -48195,7 +47967,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.288970845794379</v>
+        <v>1.293476359030788</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.213518680597997</v>
@@ -48284,7 +48056,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.284399863983091</v>
+        <v>1.28927149212389</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.356032836874538</v>
@@ -48373,7 +48145,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.281325547242229</v>
+        <v>1.289257401846471</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.346879861038217</v>
@@ -48462,7 +48234,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.270614644666174</v>
+        <v>1.28117950432268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.322569028991518</v>
@@ -48551,7 +48323,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.273168212997567</v>
+        <v>1.286340325303445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.254987141555125</v>
@@ -48640,7 +48412,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.281358871675042</v>
+        <v>1.295976310898507</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.355931626170093</v>
@@ -48729,7 +48501,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.304765796120938</v>
+        <v>1.325565964181239</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.257035486612822</v>
@@ -48818,7 +48590,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.357363078400531</v>
+        <v>1.375082874510722</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.361567471792172</v>
@@ -48907,7 +48679,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.372517697546006</v>
+        <v>1.395573732654418</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.474048407193636</v>
@@ -48996,7 +48768,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.407064695286876</v>
+        <v>1.423160878162712</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.30281801749901</v>
@@ -49085,7 +48857,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435139787192805</v>
+        <v>1.461657234105383</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.337758191673478</v>
@@ -49174,7 +48946,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.484460997612038</v>
+        <v>1.508734755502144</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.271516275717905</v>
@@ -49263,7 +49035,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495474225880827</v>
+        <v>1.521383336530136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.487862414214123</v>
@@ -49352,7 +49124,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.505217561697329</v>
+        <v>1.528850851824356</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.457486470271308</v>
@@ -49441,7 +49213,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.515926525753427</v>
+        <v>1.54089998504816</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.611842976766588</v>
@@ -49530,7 +49302,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.524939709029397</v>
+        <v>1.550094459805764</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.49049141424621</v>
@@ -49619,7 +49391,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.520142032048774</v>
+        <v>1.548250464088355</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.479067758943317</v>
@@ -49708,7 +49480,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.558083654561093</v>
+        <v>1.584636988524913</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.313826824926844</v>
@@ -49797,7 +49569,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.581585755354111</v>
+        <v>1.598809713458844</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.523445802202065</v>
@@ -49886,7 +49658,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.55666484355449</v>
+        <v>1.571243667626262</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.571229484824589</v>
@@ -49975,7 +49747,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.527954606342731</v>
+        <v>1.549378941025368</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.644580426835806</v>
@@ -50064,7 +49836,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.515185561646396</v>
+        <v>1.536040552281462</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.602249052439527</v>
@@ -50153,7 +49925,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.479072103781764</v>
+        <v>1.505714641935215</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.554708518422315</v>
@@ -50242,7 +50014,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.473321295623442</v>
+        <v>1.503666196160767</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.534668496986569</v>
@@ -50331,7 +50103,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.484464640948812</v>
+        <v>1.51776843934215</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.368876837289066</v>
@@ -50420,7 +50192,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.472110246810536</v>
+        <v>1.506768416609995</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.706330270954841</v>
@@ -50509,7 +50281,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.474049018706081</v>
+        <v>1.506696086026522</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.636699331389595</v>
@@ -50598,7 +50370,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.458140951028239</v>
+        <v>1.496214299707749</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.616150413073246</v>
@@ -50687,7 +50459,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.439629211667981</v>
+        <v>1.479037977127939</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.695688852960933</v>
@@ -50776,7 +50548,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.439401945070831</v>
+        <v>1.477635537371724</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.697437454606748</v>
@@ -50865,7 +50637,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.423322257539963</v>
+        <v>1.462524393720396</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.638401992218837</v>
@@ -50954,7 +50726,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.394298713776838</v>
+        <v>1.429682541173783</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.001288217863794</v>
@@ -51043,7 +50815,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.364223574023234</v>
+        <v>1.372443632048126</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.663336336449848</v>
@@ -51132,7 +50904,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.382975457137757</v>
+        <v>1.398726625560902</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.750254382376322</v>
@@ -51221,7 +50993,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.402177398577873</v>
+        <v>1.424733631369461</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.76478036672635</v>
@@ -51310,7 +51082,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.400231096759844</v>
+        <v>1.426504035680365</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.77589594317649</v>
@@ -51399,7 +51171,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.421150198987148</v>
+        <v>1.44599675333222</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.769320893438265</v>
@@ -51488,7 +51260,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.444572266734566</v>
+        <v>1.471616332049033</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.76415752255562</v>
@@ -51577,7 +51349,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.45182479997977</v>
+        <v>1.482407144046978</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.806331807589031</v>
@@ -51666,7 +51438,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.460491828548863</v>
+        <v>1.491676780725999</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.815041272324487</v>
@@ -51755,7 +51527,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.48190485541343</v>
+        <v>1.51305974536485</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.88080438488652</v>
@@ -51844,7 +51616,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.455665764306865</v>
+        <v>1.477761572049257</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.879630135812774</v>
@@ -51933,7 +51705,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.446221007603707</v>
+        <v>1.463700689775229</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.89476620260505</v>
@@ -52022,7 +51794,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.431857394076379</v>
+        <v>1.448472971206987</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.917131373624633</v>
@@ -52111,7 +51883,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.431346839971017</v>
+        <v>1.444156720910072</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.937229897239611</v>
